--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B983A-9E82-404E-A647-46861D85E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD98514-AAB1-1F4E-9E84-2B0835881535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="757">
   <si>
     <t>variable</t>
   </si>
@@ -2296,6 +2296,18 @@
   </si>
   <si>
     <t>Gaz de synthèse</t>
+  </si>
+  <si>
+    <t>District cooling</t>
+  </si>
+  <si>
+    <t>Réseaux de climatisation</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t>Réseaux de chaleur</t>
   </si>
 </sst>
 </file>
@@ -3850,11 +3862,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D325" sqref="D325"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8438,6 +8450,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D328" s="57" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D329" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD98514-AAB1-1F4E-9E84-2B0835881535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D76C99-4980-8943-9AB2-518E452F0924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="759">
   <si>
     <t>variable</t>
   </si>
@@ -2308,6 +2308,12 @@
   </si>
   <si>
     <t>Réseaux de chaleur</t>
+  </si>
+  <si>
+    <t>Blend with H2</t>
+  </si>
+  <si>
+    <t>Mélange avec H2</t>
   </si>
 </sst>
 </file>
@@ -3862,11 +3868,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8478,6 +8484,20 @@
         <v>62</v>
       </c>
     </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D330" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D76C99-4980-8943-9AB2-518E452F0924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF8122-8822-A341-A642-FA8DEE794477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="764">
   <si>
     <t>variable</t>
   </si>
@@ -2314,13 +2314,28 @@
   </si>
   <si>
     <t>Mélange avec H2</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Road passenger</t>
+  </si>
+  <si>
+    <t>Road freight</t>
+  </si>
+  <si>
+    <t>Marchandises - routier</t>
+  </si>
+  <si>
+    <t>Passager - routier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2347,8 +2362,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="129">
+  <fills count="130">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3115,6 +3137,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8451BD"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF876D03"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3130,7 +3158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3571,6 +3599,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3868,11 +3899,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D330"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D330" sqref="D330"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6182,7 +6213,7 @@
         <v>399</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>399</v>
+        <v>759</v>
       </c>
       <c r="D165" s="78" t="s">
         <v>41</v>
@@ -8496,6 +8527,34 @@
       </c>
       <c r="D330" s="32" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D331" s="148" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D332" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF8122-8822-A341-A642-FA8DEE794477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831627CE-C096-9342-B20B-2137326A13F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="766">
   <si>
     <t>variable</t>
   </si>
@@ -2329,6 +2329,12 @@
   </si>
   <si>
     <t>Passager - routier</t>
+  </si>
+  <si>
+    <t>Hybride rechargeable essence</t>
+  </si>
+  <si>
+    <t>Gasoline plug-in hybrid</t>
   </si>
 </sst>
 </file>
@@ -3158,7 +3164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3602,6 +3608,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3899,11 +3908,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D332"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C333" sqref="C333"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8557,6 +8566,34 @@
         <v>81</v>
       </c>
     </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D333" s="102" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="149" t="s">
+        <v>260</v>
+      </c>
+      <c r="B334" s="149" t="s">
+        <v>260</v>
+      </c>
+      <c r="C334" s="149" t="s">
+        <v>261</v>
+      </c>
+      <c r="D334" s="137" t="s">
+        <v>608</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831627CE-C096-9342-B20B-2137326A13F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA528545-C9B6-3846-98D9-648C0D69D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="768">
   <si>
     <t>variable</t>
   </si>
@@ -2335,6 +2335,12 @@
   </si>
   <si>
     <t>Gasoline plug-in hybrid</t>
+  </si>
+  <si>
+    <t>Hybride essence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasoline hybrid </t>
   </si>
 </sst>
 </file>
@@ -3908,11 +3914,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D334" sqref="D334"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8594,6 +8600,20 @@
         <v>608</v>
       </c>
     </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D335" s="71" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA528545-C9B6-3846-98D9-648C0D69D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA2B08-C0B3-9944-8633-570A91A43BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="770">
   <si>
     <t>variable</t>
   </si>
@@ -2341,6 +2341,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gasoline hybrid </t>
+  </si>
+  <si>
+    <t>Light fuel oil</t>
+  </si>
+  <si>
+    <t>Mazout léger</t>
   </si>
 </sst>
 </file>
@@ -3914,11 +3920,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D335"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D336" sqref="D336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8614,6 +8620,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D336" s="86" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA2B08-C0B3-9944-8633-570A91A43BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C08951B-D0E4-6648-94E5-824E25D62D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="772">
   <si>
     <t>variable</t>
   </si>
@@ -2347,6 +2347,12 @@
   </si>
   <si>
     <t>Mazout léger</t>
+  </si>
+  <si>
+    <t>Biomass feedstock</t>
+  </si>
+  <si>
+    <t>Matières premières de biomasse</t>
   </si>
 </sst>
 </file>
@@ -3920,11 +3926,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D336" sqref="D336"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8634,6 +8640,20 @@
         <v>88</v>
       </c>
     </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D337" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C08951B-D0E4-6648-94E5-824E25D62D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA1E7A-EA9A-A04B-9E78-EA811F8E30FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="825">
   <si>
     <t>variable</t>
   </si>
@@ -2353,6 +2353,165 @@
   </si>
   <si>
     <t>Matières premières de biomasse</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>Nuclear conventional</t>
+  </si>
+  <si>
+    <t>Nucléaire - conventionnel</t>
+  </si>
+  <si>
+    <t>Nuclear - conventional</t>
+  </si>
+  <si>
+    <t>Nuclear - SMR</t>
+  </si>
+  <si>
+    <t>Nucléaire - PRM</t>
+  </si>
+  <si>
+    <t>Agricultural residues</t>
+  </si>
+  <si>
+    <t>Résidus agricoles</t>
+  </si>
+  <si>
+    <t>Biomasse primaire</t>
+  </si>
+  <si>
+    <t>Biomasse - primaire</t>
+  </si>
+  <si>
+    <t>Biomass - primary</t>
+  </si>
+  <si>
+    <t>Biomasse secondaire</t>
+  </si>
+  <si>
+    <t>Biomasse - secondaire</t>
+  </si>
+  <si>
+    <t>Biomass - secondary</t>
+  </si>
+  <si>
+    <t>Biomasse tertiaire</t>
+  </si>
+  <si>
+    <t>Biomasse - tertiaire</t>
+  </si>
+  <si>
+    <t>Biomass - tertiary</t>
+  </si>
+  <si>
+    <t>Canola</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Maïs</t>
+  </si>
+  <si>
+    <t>Soybeans</t>
+  </si>
+  <si>
+    <t>Soja</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>Tall oil</t>
+  </si>
+  <si>
+    <t>Tallow and yellow greases</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Blé</t>
+  </si>
+  <si>
+    <t>Wood pellet</t>
+  </si>
+  <si>
+    <t>Wood pellets</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>Biogaz</t>
+  </si>
+  <si>
+    <t>Granule de bois</t>
+  </si>
+  <si>
+    <t>Biojet</t>
+  </si>
+  <si>
+    <t>Biomethane</t>
+  </si>
+  <si>
+    <t>Ethanol 1st</t>
+  </si>
+  <si>
+    <t>Ethanol 2nd</t>
+  </si>
+  <si>
+    <t>Renewable diesel</t>
+  </si>
+  <si>
+    <t>Vegetable oil</t>
+  </si>
+  <si>
+    <t>Huile végétale</t>
+  </si>
+  <si>
+    <t>Biochar</t>
+  </si>
+  <si>
+    <t>Biocharbon</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Cellulosic ethanol</t>
+  </si>
+  <si>
+    <t>Éthanol cellulosique</t>
+  </si>
+  <si>
+    <t>Biométhane</t>
+  </si>
+  <si>
+    <t>Éthanol 1ère génération</t>
+  </si>
+  <si>
+    <t>Éthanol 2e génération</t>
+  </si>
+  <si>
+    <t>Diesel renouvelable</t>
+  </si>
+  <si>
+    <t>Méthanol</t>
+  </si>
+  <si>
+    <t>Biocarburant pour l'aviation</t>
+  </si>
+  <si>
+    <t>Huile de tall</t>
+  </si>
+  <si>
+    <t>Graisse de suif</t>
+  </si>
+  <si>
+    <t>Amidon</t>
   </si>
 </sst>
 </file>
@@ -3926,11 +4085,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D337" sqref="D337"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8654,6 +8813,342 @@
         <v>25</v>
       </c>
     </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D338" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D339" s="105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D340" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D341" s="79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D342" s="126" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D343" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D344" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D345" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D346" s="112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D347" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D348" s="127" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D349" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D350" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D351" s="105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D352" s="51" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D353" s="83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D354" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D355" s="139" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D356" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D357" s="49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D358" s="142" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D359" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D360" s="93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D361" s="144" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA1E7A-EA9A-A04B-9E78-EA811F8E30FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A4BF8-0713-0247-AEAA-FE4C20310157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="826">
   <si>
     <t>variable</t>
   </si>
@@ -2512,6 +2512,9 @@
   </si>
   <si>
     <t>Amidon</t>
+  </si>
+  <si>
+    <t>Biodiesel</t>
   </si>
 </sst>
 </file>
@@ -4085,11 +4088,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D364" sqref="D364"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9149,6 +9152,20 @@
         <v>642</v>
       </c>
     </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D362" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A4BF8-0713-0247-AEAA-FE4C20310157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F02214-3443-3F49-B711-1107A71124C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="836">
   <si>
     <t>variable</t>
   </si>
@@ -2515,6 +2515,36 @@
   </si>
   <si>
     <t>Biodiesel</t>
+  </si>
+  <si>
+    <t>Biomass gasification (with CCS)</t>
+  </si>
+  <si>
+    <t>Biomass gasification (without CCS)</t>
+  </si>
+  <si>
+    <t>Electrolyzers</t>
+  </si>
+  <si>
+    <t>Autothermal reforming (with CCS)</t>
+  </si>
+  <si>
+    <t>Steam methane reforming (without CCS)</t>
+  </si>
+  <si>
+    <t>Gazéification de biomasse (avec CSC)</t>
+  </si>
+  <si>
+    <t>Gazéification de biomasse (sans CSC)</t>
+  </si>
+  <si>
+    <t>Électrolyseur</t>
+  </si>
+  <si>
+    <t>Reformage à la vapeur authothermique (avec CSC)</t>
+  </si>
+  <si>
+    <t>Reformage à la vapeur (sans CSC)</t>
   </si>
 </sst>
 </file>
@@ -4088,11 +4118,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D362"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D362" sqref="D362"/>
+      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9166,6 +9196,76 @@
         <v>62</v>
       </c>
     </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>826</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C363" t="s">
+        <v>826</v>
+      </c>
+      <c r="D363" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>827</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C364" t="s">
+        <v>827</v>
+      </c>
+      <c r="D364" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D365" s="137" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>829</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C366" t="s">
+        <v>829</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>830</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C367" t="s">
+        <v>830</v>
+      </c>
+      <c r="D367" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Données figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F02214-3443-3F49-B711-1107A71124C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2B535-A86D-6843-A5B8-BA1D08934263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="847">
   <si>
     <t>variable</t>
   </si>
@@ -2545,6 +2545,39 @@
   </si>
   <si>
     <t>Reformage à la vapeur (sans CSC)</t>
+  </si>
+  <si>
+    <t>BECCS (negative)</t>
+  </si>
+  <si>
+    <t>BECSC (émissions négatives)</t>
+  </si>
+  <si>
+    <t>BECCS (negative emissions)</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>DAC (negative)</t>
+  </si>
+  <si>
+    <t>EDA (émissions négatives)</t>
+  </si>
+  <si>
+    <t>DAC (negative emissions)</t>
+  </si>
+  <si>
+    <t>Biochar (negative)</t>
+  </si>
+  <si>
+    <t>Biocharbon (émissions négatives)</t>
+  </si>
+  <si>
+    <t>Biochar (negative emissions)</t>
   </si>
 </sst>
 </file>
@@ -4118,11 +4151,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D367" sqref="D367"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7820,8 +7853,8 @@
       <c r="C264" t="s">
         <v>327</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>607</v>
+      <c r="D264" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -9264,6 +9297,62 @@
       </c>
       <c r="D367" s="82" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D369" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D370" s="147" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D371" s="24" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2B535-A86D-6843-A5B8-BA1D08934263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20920F7B-10C3-9B41-AE68-3FDEB3D89048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="876">
   <si>
     <t>variable</t>
   </si>
@@ -2578,6 +2578,93 @@
   </si>
   <si>
     <t>Biochar (negative emissions)</t>
+  </si>
+  <si>
+    <t>Heating and lighting</t>
+  </si>
+  <si>
+    <t>Chauffage et éclairage</t>
+  </si>
+  <si>
+    <t>Liming</t>
+  </si>
+  <si>
+    <t>Chaulage</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Basic chemical and fertilizer</t>
+  </si>
+  <si>
+    <t>Petrochemical</t>
+  </si>
+  <si>
+    <t>Other chemical</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Forestery</t>
+  </si>
+  <si>
+    <t>Non ferrous metal</t>
+  </si>
+  <si>
+    <t>Other manufacturing</t>
+  </si>
+  <si>
+    <t>Pulp and paper</t>
+  </si>
+  <si>
+    <t>Fer et acier</t>
+  </si>
+  <si>
+    <t>Ciment</t>
+  </si>
+  <si>
+    <t>Produits chimiques basiques</t>
+  </si>
+  <si>
+    <t>Pétrochimie</t>
+  </si>
+  <si>
+    <t>Autres produits chimiques</t>
+  </si>
+  <si>
+    <t>Other chemicals</t>
+  </si>
+  <si>
+    <t>Foresterie</t>
+  </si>
+  <si>
+    <t>Minier</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Métaux non ferreux</t>
+  </si>
+  <si>
+    <t>Non-ferrous metal</t>
+  </si>
+  <si>
+    <t>Pâtes et papier</t>
+  </si>
+  <si>
+    <t>Chaux</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="130">
+  <fills count="132">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3391,6 +3478,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF876D03"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA5530"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFA904"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -3407,7 +3506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3854,6 +3953,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4151,11 +4256,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D264" sqref="D264"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D384" sqref="D384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9355,6 +9460,216 @@
         <v>306</v>
       </c>
     </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D372" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D373" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>851</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C374" t="s">
+        <v>851</v>
+      </c>
+      <c r="D374" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>852</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C375" t="s">
+        <v>852</v>
+      </c>
+      <c r="D375" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D376" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>854</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C377" t="s">
+        <v>854</v>
+      </c>
+      <c r="D377" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>855</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C378" t="s">
+        <v>855</v>
+      </c>
+      <c r="D378" s="150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>856</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C379" t="s">
+        <v>856</v>
+      </c>
+      <c r="D379" s="124" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>857</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C380" t="s">
+        <v>868</v>
+      </c>
+      <c r="D380" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>858</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C381" t="s">
+        <v>858</v>
+      </c>
+      <c r="D381" s="105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>859</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C382" t="s">
+        <v>859</v>
+      </c>
+      <c r="D382" s="92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>871</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C383" t="s">
+        <v>871</v>
+      </c>
+      <c r="D383" s="127" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>860</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C384" t="s">
+        <v>873</v>
+      </c>
+      <c r="D384" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>861</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C385" t="s">
+        <v>861</v>
+      </c>
+      <c r="D385" s="151" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>862</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C386" t="s">
+        <v>862</v>
+      </c>
+      <c r="D386" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20920F7B-10C3-9B41-AE68-3FDEB3D89048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC04D08-A4CC-4946-9BCD-FE745D784829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="879">
   <si>
     <t>variable</t>
   </si>
@@ -2665,6 +2665,15 @@
   </si>
   <si>
     <t>Chaux</t>
+  </si>
+  <si>
+    <t>Oil, gas and coal production (incl. Fugitive)</t>
+  </si>
+  <si>
+    <t>Oil, gas and coal production (incl. fugitive)</t>
+  </si>
+  <si>
+    <t>Production de pétrole, gaz et charbon (incl. fugitives)</t>
   </si>
 </sst>
 </file>
@@ -4256,11 +4265,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D384" sqref="D384"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9670,6 +9679,20 @@
         <v>146</v>
       </c>
     </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>876</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C387" t="s">
+        <v>877</v>
+      </c>
+      <c r="D387" s="106" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC04D08-A4CC-4946-9BCD-FE745D784829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7DCB1-986D-BC4F-8449-4350829B2B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="879">
   <si>
     <t>variable</t>
   </si>
@@ -4265,10 +4265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
@@ -9661,8 +9661,8 @@
       <c r="C385" t="s">
         <v>861</v>
       </c>
-      <c r="D385" s="151" t="s">
-        <v>135</v>
+      <c r="D385" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9675,8 +9675,8 @@
       <c r="C386" t="s">
         <v>862</v>
       </c>
-      <c r="D386" s="14" t="s">
-        <v>146</v>
+      <c r="D386" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9689,7 +9689,27 @@
       <c r="C387" t="s">
         <v>877</v>
       </c>
-      <c r="D387" s="106" t="s">
+      <c r="D387" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D389" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D390" s="151" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D391" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D392" s="106" t="s">
         <v>287</v>
       </c>
     </row>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7DCB1-986D-BC4F-8449-4350829B2B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C2841-53C8-7747-944E-E74785133B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4268,8 +4268,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9647,8 +9647,8 @@
       <c r="C384" t="s">
         <v>873</v>
       </c>
-      <c r="D384" s="110" t="s">
-        <v>62</v>
+      <c r="D384" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9661,8 +9661,8 @@
       <c r="C385" t="s">
         <v>861</v>
       </c>
-      <c r="D385" s="110" t="s">
-        <v>62</v>
+      <c r="D385" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9675,8 +9675,8 @@
       <c r="C386" t="s">
         <v>862</v>
       </c>
-      <c r="D386" s="110" t="s">
-        <v>62</v>
+      <c r="D386" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9689,8 +9689,8 @@
       <c r="C387" t="s">
         <v>877</v>
       </c>
-      <c r="D387" s="110" t="s">
-        <v>62</v>
+      <c r="D387" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C2841-53C8-7747-944E-E74785133B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14942E69-9B30-0643-AC70-93A99719C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="879">
   <si>
     <t>variable</t>
   </si>
@@ -1884,9 +1884,6 @@
     <t>#5dcec7</t>
   </si>
   <si>
-    <t>#326d509</t>
-  </si>
-  <si>
     <t>Réaménagement énergétique</t>
   </si>
   <si>
@@ -2674,6 +2671,9 @@
   </si>
   <si>
     <t>Production de pétrole, gaz et charbon (incl. fugitives)</t>
+  </si>
+  <si>
+    <t>#326d50</t>
   </si>
 </sst>
 </file>
@@ -4268,8 +4268,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D389" sqref="D389:D392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4398,7 +4398,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>169</v>
@@ -4493,13 +4493,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D16" s="70" t="s">
         <v>6</v>
@@ -4507,13 +4507,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>49</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>6</v>
@@ -4535,13 +4535,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>719</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>49</v>
@@ -4591,13 +4591,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D23" s="81" t="s">
         <v>25</v>
@@ -4625,7 +4625,7 @@
         <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>185</v>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D26" s="92"/>
     </row>
@@ -4707,7 +4707,7 @@
         <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>202</v>
@@ -4718,7 +4718,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -4732,7 +4732,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>54</v>
@@ -4875,7 +4875,7 @@
         <v>581</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>186</v>
@@ -4883,13 +4883,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>721</v>
-      </c>
       <c r="C44" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>186</v>
@@ -5147,13 +5147,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D63" s="70" t="s">
         <v>6</v>
@@ -5301,13 +5301,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>186</v>
@@ -5318,10 +5318,10 @@
         <v>587</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>186</v>
@@ -5332,10 +5332,10 @@
         <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="D76" s="138" t="s">
         <v>609</v>
@@ -5346,7 +5346,7 @@
         <v>238</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>239</v>
@@ -5360,7 +5360,7 @@
         <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>242</v>
@@ -5374,7 +5374,7 @@
         <v>593</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>593</v>
@@ -5430,13 +5430,13 @@
         <v>369</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D83" s="147" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
         <v>370</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>371</v>
@@ -5556,10 +5556,10 @@
         <v>372</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D92" s="31" t="s">
         <v>373</v>
@@ -5727,7 +5727,7 @@
         <v>374</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>240</v>
@@ -5738,7 +5738,7 @@
         <v>375</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>376</v>
@@ -5791,13 +5791,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>663</v>
+      </c>
+      <c r="B109" t="s">
+        <v>663</v>
+      </c>
+      <c r="C109" t="s">
         <v>664</v>
-      </c>
-      <c r="B109" t="s">
-        <v>664</v>
-      </c>
-      <c r="C109" t="s">
-        <v>665</v>
       </c>
       <c r="D109" s="98" t="s">
         <v>218</v>
@@ -5892,7 +5892,7 @@
         <v>439</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>440</v>
@@ -5906,7 +5906,7 @@
         <v>441</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>442</v>
@@ -5923,7 +5923,7 @@
         <v>253</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>20</v>
@@ -5937,10 +5937,10 @@
         <v>332</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D119" s="141" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6105,7 +6105,7 @@
         <v>259</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D131" s="71" t="s">
         <v>9</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D132" s="71" t="s">
         <v>9</v>
@@ -6141,13 +6141,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D134" s="102" t="s">
         <v>262</v>
@@ -6324,10 +6324,10 @@
         <v>393</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
@@ -6338,10 +6338,10 @@
         <v>394</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="D148" s="82" t="s">
         <v>49</v>
@@ -6352,10 +6352,10 @@
         <v>395</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>293</v>
@@ -6366,13 +6366,13 @@
         <v>396</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D150" s="142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -6579,7 +6579,7 @@
         <v>399</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D165" s="78" t="s">
         <v>41</v>
@@ -6657,13 +6657,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="D171" s="70" t="s">
         <v>6</v>
@@ -7259,13 +7259,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D214" s="74" t="s">
         <v>26</v>
@@ -7324,7 +7324,7 @@
         <v>343</v>
       </c>
       <c r="D218" s="140" t="s">
-        <v>615</v>
+        <v>878</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
         <v>406</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D222" s="93" t="s">
         <v>193</v>
@@ -7394,7 +7394,7 @@
         <v>610</v>
       </c>
       <c r="D223" s="144" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7408,7 +7408,7 @@
         <v>611</v>
       </c>
       <c r="D224" s="143" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7489,7 +7489,7 @@
         <v>524</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D230" s="70" t="s">
         <v>6</v>
@@ -7500,10 +7500,10 @@
         <v>284</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D231" s="34" t="s">
         <v>409</v>
@@ -7514,10 +7514,10 @@
         <v>285</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D232" s="34" t="s">
         <v>409</v>
@@ -7528,10 +7528,10 @@
         <v>286</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="D233" s="106" t="s">
         <v>287</v>
@@ -7587,7 +7587,7 @@
         <v>195</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D237" s="75" t="s">
         <v>29</v>
@@ -7595,13 +7595,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>20</v>
@@ -7609,16 +7609,16 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="D239" s="146" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7682,10 +7682,10 @@
         <v>288</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="D244" s="22" t="s">
         <v>237</v>
@@ -7693,13 +7693,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="C245" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D245" s="89" t="s">
         <v>139</v>
@@ -8220,7 +8220,7 @@
         <v>433</v>
       </c>
       <c r="D282" s="145" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -8253,7 +8253,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>196</v>
@@ -8368,10 +8368,10 @@
         <v>588</v>
       </c>
       <c r="B293" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C293" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="D293" s="58" t="s">
         <v>45</v>
@@ -8463,41 +8463,41 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C300" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D300" s="142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C301" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D301" s="143" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C302" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D302" s="75" t="s">
         <v>29</v>
@@ -8505,24 +8505,24 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C303" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D303" s="147" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B304" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>605</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>145</v>
@@ -8561,13 +8561,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B307" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D307" s="70" t="s">
         <v>6</v>
@@ -8575,13 +8575,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B308" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>20</v>
@@ -8589,13 +8589,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B309" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D309" s="75" t="s">
         <v>29</v>
@@ -8603,13 +8603,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B310" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D310" s="127" t="s">
         <v>586</v>
@@ -8617,13 +8617,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B311" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D311" s="80" t="s">
         <v>45</v>
@@ -8631,13 +8631,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B312" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D312" s="24" t="s">
         <v>306</v>
@@ -8645,13 +8645,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B313" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D313" s="105" t="s">
         <v>81</v>
@@ -8659,13 +8659,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B314" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D314" s="126" t="s">
         <v>584</v>
@@ -8673,13 +8673,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B315" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D315" s="39" t="s">
         <v>424</v>
@@ -8687,13 +8687,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D316" s="57" t="s">
         <v>535</v>
@@ -8701,13 +8701,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D317" s="70" t="s">
         <v>6</v>
@@ -8715,13 +8715,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D318" s="75" t="s">
         <v>29</v>
@@ -8729,13 +8729,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D319" s="71" t="s">
         <v>9</v>
@@ -8743,13 +8743,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D320" s="137" t="s">
         <v>608</v>
@@ -8757,13 +8757,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D321" s="70" t="s">
         <v>6</v>
@@ -8771,13 +8771,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D322" s="57" t="s">
         <v>535</v>
@@ -8785,13 +8785,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D323" s="106" t="s">
         <v>287</v>
@@ -8799,13 +8799,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D324" s="24" t="s">
         <v>306</v>
@@ -8813,10 +8813,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>197</v>
@@ -8827,13 +8827,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="C326" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D326" s="57" t="s">
         <v>535</v>
@@ -8841,13 +8841,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>752</v>
-      </c>
       <c r="C327" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D327" s="71" t="s">
         <v>9</v>
@@ -8855,13 +8855,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="C328" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D328" s="57" t="s">
         <v>535</v>
@@ -8869,13 +8869,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>756</v>
-      </c>
       <c r="C329" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D329" s="110" t="s">
         <v>62</v>
@@ -8883,13 +8883,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="C330" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D330" s="32" t="s">
         <v>392</v>
@@ -8897,13 +8897,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D331" s="148" t="s">
         <v>129</v>
@@ -8911,13 +8911,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="C332" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>81</v>
@@ -8925,13 +8925,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="D333" s="102" t="s">
         <v>262</v>
@@ -8953,13 +8953,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="D335" s="71" t="s">
         <v>9</v>
@@ -8967,13 +8967,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="C336" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D336" s="86" t="s">
         <v>88</v>
@@ -8981,13 +8981,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>771</v>
-      </c>
       <c r="C337" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D337" s="81" t="s">
         <v>25</v>
@@ -8995,13 +8995,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D338" s="80" t="s">
         <v>45</v>
@@ -9009,13 +9009,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="D339" s="105" t="s">
         <v>81</v>
@@ -9023,13 +9023,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="C340" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D340" s="32" t="s">
         <v>392</v>
@@ -9037,13 +9037,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="D341" s="79" t="s">
         <v>44</v>
@@ -9051,13 +9051,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="D342" s="126" t="s">
         <v>584</v>
@@ -9065,13 +9065,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="D343" s="110" t="s">
         <v>62</v>
@@ -9079,13 +9079,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D344" s="25" t="s">
         <v>321</v>
@@ -9093,13 +9093,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="C345" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>135</v>
@@ -9107,13 +9107,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>793</v>
-      </c>
       <c r="C346" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D346" s="112" t="s">
         <v>186</v>
@@ -9121,13 +9121,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D347" s="77" t="s">
         <v>38</v>
@@ -9135,13 +9135,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D348" s="127" t="s">
         <v>586</v>
@@ -9149,13 +9149,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D349" s="80" t="s">
         <v>45</v>
@@ -9163,13 +9163,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="C350" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D350" s="24" t="s">
         <v>306</v>
@@ -9177,13 +9177,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="D351" s="105" t="s">
         <v>81</v>
@@ -9191,13 +9191,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>802</v>
-      </c>
       <c r="C352" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D352" s="51" t="s">
         <v>487</v>
@@ -9205,13 +9205,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D353" s="83" t="s">
         <v>56</v>
@@ -9219,13 +9219,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D354" s="39" t="s">
         <v>424</v>
@@ -9233,13 +9233,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D355" s="139" t="s">
         <v>614</v>
@@ -9247,13 +9247,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D356" s="75" t="s">
         <v>29</v>
@@ -9261,13 +9261,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D357" s="49" t="s">
         <v>480</v>
@@ -9275,27 +9275,27 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>810</v>
-      </c>
       <c r="C358" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D358" s="142" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>812</v>
-      </c>
       <c r="C359" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D359" s="24" t="s">
         <v>306</v>
@@ -9303,13 +9303,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D360" s="93" t="s">
         <v>193</v>
@@ -9317,27 +9317,27 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>815</v>
-      </c>
       <c r="C361" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D361" s="144" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D362" s="110" t="s">
         <v>62</v>
@@ -9345,13 +9345,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C363" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D363" s="17" t="s">
         <v>223</v>
@@ -9359,13 +9359,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C364" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D364" s="25" t="s">
         <v>321</v>
@@ -9373,13 +9373,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D365" s="137" t="s">
         <v>608</v>
@@ -9387,13 +9387,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C366" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>12</v>
@@ -9401,13 +9401,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C367" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D367" s="82" t="s">
         <v>49</v>
@@ -9415,13 +9415,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="D368" s="17" t="s">
         <v>223</v>
@@ -9429,13 +9429,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>840</v>
-      </c>
       <c r="C369" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D369" s="82" t="s">
         <v>49</v>
@@ -9443,27 +9443,27 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C370" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="D370" s="147" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="D371" s="24" t="s">
         <v>306</v>
@@ -9471,13 +9471,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="C372" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D372" s="77" t="s">
         <v>38</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>850</v>
-      </c>
       <c r="C373" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D373" s="80" t="s">
         <v>45</v>
@@ -9499,13 +9499,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C374" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D374" s="75" t="s">
         <v>29</v>
@@ -9513,13 +9513,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C375" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D375" s="77" t="s">
         <v>38</v>
@@ -9527,13 +9527,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D376" s="45" t="s">
         <v>468</v>
@@ -9541,13 +9541,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C377" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D377" s="80" t="s">
         <v>45</v>
@@ -9555,13 +9555,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C378" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D378" s="150" t="s">
         <v>6</v>
@@ -9569,13 +9569,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C379" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D379" s="124" t="s">
         <v>576</v>
@@ -9583,13 +9583,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C380" t="s">
         <v>867</v>
-      </c>
-      <c r="C380" t="s">
-        <v>868</v>
       </c>
       <c r="D380" s="20" t="s">
         <v>237</v>
@@ -9597,13 +9597,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C381" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D381" s="105" t="s">
         <v>81</v>
@@ -9611,13 +9611,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C382" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D382" s="92" t="s">
         <v>185</v>
@@ -9625,13 +9625,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C383" t="s">
         <v>870</v>
-      </c>
-      <c r="C383" t="s">
-        <v>871</v>
       </c>
       <c r="D383" s="127" t="s">
         <v>586</v>
@@ -9639,27 +9639,27 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C384" t="s">
         <v>872</v>
       </c>
-      <c r="C384" t="s">
-        <v>873</v>
-      </c>
-      <c r="D384" s="151" t="s">
-        <v>135</v>
+      <c r="D384" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C385" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D385" s="151" t="s">
         <v>135</v>
@@ -9667,51 +9667,43 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C386" t="s">
-        <v>862</v>
-      </c>
-      <c r="D386" s="151" t="s">
-        <v>135</v>
+        <v>861</v>
+      </c>
+      <c r="D386" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
+        <v>875</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C387" t="s">
         <v>876</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C387" t="s">
-        <v>877</v>
-      </c>
-      <c r="D387" s="151" t="s">
-        <v>135</v>
+      <c r="D387" s="106" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D389" s="110" t="s">
-        <v>62</v>
-      </c>
+      <c r="D389" s="110"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D390" s="151" t="s">
-        <v>135</v>
-      </c>
+      <c r="D390" s="151"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D391" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="D391" s="14"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D392" s="106" t="s">
-        <v>287</v>
-      </c>
+      <c r="D392" s="106"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14942E69-9B30-0643-AC70-93A99719C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E1C38-D98E-1E4D-9565-3E2E08B5DF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4267,9 +4267,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D389" sqref="D389:D392"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9693,13 +9693,18 @@
         <v>287</v>
       </c>
     </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388"/>
+    </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389"/>
       <c r="D389" s="110"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D390" s="151"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391"/>
       <c r="D391" s="14"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E1C38-D98E-1E4D-9565-3E2E08B5DF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7AD14B-C2A6-4442-8248-8DA505C0329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="881">
   <si>
     <t>variable</t>
   </si>
@@ -2674,6 +2674,12 @@
   </si>
   <si>
     <t>#326d50</t>
+  </si>
+  <si>
+    <t>Biofuels</t>
+  </si>
+  <si>
+    <t>Biocarburants</t>
   </si>
 </sst>
 </file>
@@ -4268,8 +4274,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B367" sqref="B367"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9694,7 +9700,18 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A388"/>
+      <c r="A388" t="s">
+        <v>879</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D388" s="140" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389"/>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7AD14B-C2A6-4442-8248-8DA505C0329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2980124D-99E8-E34C-8374-0AADBA94EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="882">
   <si>
     <t>variable</t>
   </si>
@@ -2680,6 +2680,9 @@
   </si>
   <si>
     <t>Biocarburants</t>
+  </si>
+  <si>
+    <t>Biofuel</t>
   </si>
 </sst>
 </file>
@@ -4274,7 +4277,7 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
@@ -9701,7 +9704,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>880</v>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2980124D-99E8-E34C-8374-0AADBA94EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C10EFE-C094-6E4F-B2A4-C35E2C058B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="890">
   <si>
     <t>variable</t>
   </si>
@@ -798,9 +798,6 @@
     <t>Gaz naturel et Gaz naturel liquéfié</t>
   </si>
   <si>
-    <t>Gaz naturel et gaz naturel liquéfié</t>
-  </si>
-  <si>
     <t>Géo et solaire thermique</t>
   </si>
   <si>
@@ -1167,9 +1164,6 @@
     <t>Fabrication et utilisation d'autres produits</t>
   </si>
   <si>
-    <t>Manufacturing and use of other products</t>
-  </si>
-  <si>
     <t>Fermentation entérique</t>
   </si>
   <si>
@@ -1200,9 +1194,6 @@
     <t>Incinération des résidus agricoles dans les champs</t>
   </si>
   <si>
-    <t>Burning of agricultural waste in fields</t>
-  </si>
-  <si>
     <t>Industrie - Combustion</t>
   </si>
   <si>
@@ -1944,9 +1935,6 @@
     <t>Other renewables</t>
   </si>
   <si>
-    <t>Natural gas and liquefied natural gas</t>
-  </si>
-  <si>
     <t>Liquefied natural gas</t>
   </si>
   <si>
@@ -2274,9 +2262,6 @@
     <t>Essence d'aviation</t>
   </si>
   <si>
-    <t>Commercial and institutional buildings</t>
-  </si>
-  <si>
     <t>Commercial and institutional (inc. publ. adm.)</t>
   </si>
   <si>
@@ -2349,9 +2334,6 @@
     <t>Biomass feedstock</t>
   </si>
   <si>
-    <t>Matières premières de biomasse</t>
-  </si>
-  <si>
     <t>SMR</t>
   </si>
   <si>
@@ -2529,21 +2511,9 @@
     <t>Steam methane reforming (without CCS)</t>
   </si>
   <si>
-    <t>Gazéification de biomasse (avec CSC)</t>
-  </si>
-  <si>
-    <t>Gazéification de biomasse (sans CSC)</t>
-  </si>
-  <si>
     <t>Électrolyseur</t>
   </si>
   <si>
-    <t>Reformage à la vapeur authothermique (avec CSC)</t>
-  </si>
-  <si>
-    <t>Reformage à la vapeur (sans CSC)</t>
-  </si>
-  <si>
     <t>BECCS (negative)</t>
   </si>
   <si>
@@ -2667,12 +2637,6 @@
     <t>Oil, gas and coal production (incl. Fugitive)</t>
   </si>
   <si>
-    <t>Oil, gas and coal production (incl. fugitive)</t>
-  </si>
-  <si>
-    <t>Production de pétrole, gaz et charbon (incl. fugitives)</t>
-  </si>
-  <si>
     <t>#326d50</t>
   </si>
   <si>
@@ -2683,6 +2647,66 @@
   </si>
   <si>
     <t>Biofuel</t>
+  </si>
+  <si>
+    <t>Comm. and inst. buildings</t>
+  </si>
+  <si>
+    <t>Gaz naturel et GNL</t>
+  </si>
+  <si>
+    <t>Natural gas and LNG</t>
+  </si>
+  <si>
+    <t>Biomass gasification (w/ CCS)</t>
+  </si>
+  <si>
+    <t>Biomass gasification (w/o CCS)</t>
+  </si>
+  <si>
+    <t>Autothermal reforming (w/ CCS)</t>
+  </si>
+  <si>
+    <t>Steam methane reforming (w/o CCS)</t>
+  </si>
+  <si>
+    <t>Reformage (sans CSC)</t>
+  </si>
+  <si>
+    <t>Reformage autotherm. (avec CSC)</t>
+  </si>
+  <si>
+    <t>Gazéif. de biomasse (sans CSC)</t>
+  </si>
+  <si>
+    <t>Gazéif. de biomasse (avec CSC)</t>
+  </si>
+  <si>
+    <t>Oil, gas and coal prod. (incl. fugitive)</t>
+  </si>
+  <si>
+    <t>Prod. de pétrole, gaz et charbon (incl. fugitives)</t>
+  </si>
+  <si>
+    <t>Manuf. and use of other products</t>
+  </si>
+  <si>
+    <t>Fabrication et util. de produits autres</t>
+  </si>
+  <si>
+    <t>Incinération des résidus agricoles</t>
+  </si>
+  <si>
+    <t>Burning of agricultural waste</t>
+  </si>
+  <si>
+    <t>Hybride recharg. essence</t>
+  </si>
+  <si>
+    <t>Hybride recharg. diesel</t>
+  </si>
+  <si>
+    <t>Mat. premières de biomasse</t>
   </si>
 </sst>
 </file>
@@ -4277,8 +4301,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4407,7 +4431,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>169</v>
@@ -4502,13 +4526,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D16" s="70" t="s">
         <v>6</v>
@@ -4516,13 +4540,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>49</v>
@@ -4530,13 +4554,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>6</v>
@@ -4544,13 +4568,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>49</v>
@@ -4558,30 +4582,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="115" t="s">
         <v>365</v>
-      </c>
-      <c r="D21" s="115" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,13 +4624,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D23" s="81" t="s">
         <v>25</v>
@@ -4614,13 +4638,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D24" s="92" t="s">
         <v>185</v>
@@ -4634,7 +4658,7 @@
         <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>185</v>
@@ -4642,13 +4666,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D26" s="92"/>
     </row>
@@ -4705,7 +4729,7 @@
         <v>200</v>
       </c>
       <c r="D30" s="136" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,7 +4740,7 @@
         <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>202</v>
@@ -4727,7 +4751,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -4741,7 +4765,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>54</v>
@@ -4789,18 +4813,18 @@
         <v>204</v>
       </c>
       <c r="D36" s="135" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D37" s="60" t="s">
         <v>185</v>
@@ -4836,13 +4860,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>25</v>
@@ -4864,13 +4888,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>44</v>
@@ -4878,13 +4902,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>745</v>
+        <v>870</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>186</v>
@@ -4892,13 +4916,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>745</v>
+        <v>870</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>186</v>
@@ -4906,16 +4930,16 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4934,16 +4958,16 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4990,30 +5014,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D52" s="43" t="s">
         <v>452</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -5027,7 +5051,7 @@
         <v>220</v>
       </c>
       <c r="D53" s="127" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -5060,25 +5084,25 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D57" s="110" t="s">
         <v>62</v>
@@ -5086,13 +5110,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D58" s="110" t="s">
         <v>62</v>
@@ -5100,16 +5124,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D59" s="120" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -5156,13 +5180,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D63" s="70" t="s">
         <v>6</v>
@@ -5170,13 +5194,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>62</v>
@@ -5198,13 +5222,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="D66" s="80" t="s">
         <v>45</v>
@@ -5226,58 +5250,58 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D68" s="44" t="s">
         <v>461</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D69" s="45" t="s">
         <v>465</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="46" t="s">
         <v>469</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D71" s="47" t="s">
         <v>473</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -5310,13 +5334,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>186</v>
@@ -5324,13 +5348,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>186</v>
@@ -5341,13 +5365,13 @@
         <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D76" s="138" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,7 +5379,7 @@
         <v>238</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>239</v>
@@ -5369,7 +5393,7 @@
         <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>242</v>
@@ -5380,16 +5404,16 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D79" s="131" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5408,13 +5432,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>81</v>
@@ -5436,27 +5460,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D83" s="147" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D84" s="85" t="s">
         <v>71</v>
@@ -5520,7 +5544,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>73</v>
@@ -5548,13 +5572,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>223</v>
@@ -5562,16 +5586,16 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D92" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5590,7 +5614,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>243</v>
@@ -5613,12 +5637,12 @@
         <v>246</v>
       </c>
       <c r="D95" s="139" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>245</v>
@@ -5627,7 +5651,7 @@
         <v>246</v>
       </c>
       <c r="D96" s="139" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5641,7 +5665,7 @@
         <v>246</v>
       </c>
       <c r="D97" s="139" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5660,30 +5684,30 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B99" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D99" s="49" t="s">
         <v>477</v>
-      </c>
-      <c r="B99" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D99" s="49" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D100" s="50" t="s">
         <v>481</v>
-      </c>
-      <c r="B100" s="48" t="s">
-        <v>482</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D100" s="50" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5730,13 +5754,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>240</v>
@@ -5744,13 +5768,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>644</v>
+        <v>884</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>376</v>
+        <v>883</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>135</v>
@@ -5758,13 +5782,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>223</v>
@@ -5772,13 +5796,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>233</v>
@@ -5800,13 +5824,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B109" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C109" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D109" s="98" t="s">
         <v>218</v>
@@ -5828,16 +5852,16 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5856,13 +5880,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D113" s="93" t="s">
         <v>193</v>
@@ -5898,13 +5922,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>135</v>
@@ -5912,16 +5936,16 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D117" s="119" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5929,10 +5953,10 @@
         <v>252</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>253</v>
+        <v>871</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>635</v>
+        <v>872</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>20</v>
@@ -5940,41 +5964,41 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D119" s="141" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D120" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D121" s="77" t="s">
         <v>38</v>
@@ -5982,16 +6006,16 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="101" t="s">
         <v>257</v>
-      </c>
-      <c r="D122" s="101" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -6010,13 +6034,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D124" s="92" t="s">
         <v>185</v>
@@ -6080,16 +6104,16 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D129" s="116" t="s">
         <v>383</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D129" s="116" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -6108,13 +6132,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D131" s="71" t="s">
         <v>9</v>
@@ -6122,13 +6146,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D132" s="71" t="s">
         <v>9</v>
@@ -6136,44 +6160,44 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="102" t="s">
         <v>261</v>
-      </c>
-      <c r="D133" s="102" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D134" s="102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="D135" s="128" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -6192,13 +6216,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D137" s="73" t="s">
         <v>17</v>
@@ -6206,27 +6230,27 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="103" t="s">
         <v>268</v>
-      </c>
-      <c r="D138" s="103" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>240</v>
@@ -6234,13 +6258,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>386</v>
+        <v>885</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>387</v>
+        <v>886</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>32</v>
@@ -6276,13 +6300,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D143" s="76" t="s">
         <v>35</v>
@@ -6290,25 +6314,25 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D144" s="76"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>62</v>
@@ -6316,7 +6340,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>188</v>
@@ -6325,18 +6349,18 @@
         <v>187</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
@@ -6344,13 +6368,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D148" s="82" t="s">
         <v>49</v>
@@ -6358,41 +6382,41 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D150" s="142" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D151" s="80" t="s">
         <v>45</v>
@@ -6400,13 +6424,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D152" s="20" t="s">
         <v>237</v>
@@ -6484,13 +6508,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D158" s="88" t="s">
         <v>119</v>
@@ -6498,16 +6522,16 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D159" s="121" t="s">
         <v>490</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D159" s="121" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6540,16 +6564,16 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D162" s="122" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6568,13 +6592,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D164" s="112" t="s">
         <v>186</v>
@@ -6582,13 +6606,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D165" s="78" t="s">
         <v>41</v>
@@ -6596,13 +6620,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D166" s="89" t="s">
         <v>139</v>
@@ -6610,13 +6634,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D167" s="93" t="s">
         <v>193</v>
@@ -6624,30 +6648,30 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D168" s="61" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D169" s="104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6666,13 +6690,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D171" s="70" t="s">
         <v>6</v>
@@ -6680,13 +6704,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D172" s="95" t="s">
         <v>205</v>
@@ -6722,30 +6746,30 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D175" s="62" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D176" s="63" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6778,13 +6802,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D179" s="64" t="s">
         <v>193</v>
@@ -6820,27 +6844,27 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D183" s="105" t="s">
         <v>81</v>
@@ -6848,13 +6872,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D184" s="105" t="s">
         <v>81</v>
@@ -6862,86 +6886,86 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D185" s="134" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D187" s="133" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D189" s="132" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6974,30 +6998,30 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D194" s="66" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -7044,27 +7068,27 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D198" s="104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D199" s="98" t="s">
         <v>218</v>
@@ -7072,16 +7096,16 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -7100,114 +7124,114 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D202" s="52" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D203" s="53" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D204" s="54" t="s">
         <v>508</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="D204" s="54" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D205" s="55" t="s">
         <v>512</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="D205" s="55" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D206" s="67" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D207" s="123" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D208" s="124" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D209" s="117" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -7226,13 +7250,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D211" s="28" t="s">
         <v>32</v>
@@ -7268,13 +7292,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D214" s="74" t="s">
         <v>26</v>
@@ -7324,41 +7348,41 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="D218" s="140" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="27" t="s">
         <v>345</v>
-      </c>
-      <c r="D219" s="27" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D220" s="28" t="s">
         <v>32</v>
@@ -7366,13 +7390,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D221" s="113" t="s">
         <v>29</v>
@@ -7380,13 +7404,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D222" s="93" t="s">
         <v>193</v>
@@ -7394,41 +7418,41 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D223" s="144" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D224" s="143" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D225" s="114" t="s">
         <v>17</v>
@@ -7436,13 +7460,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D226" s="114" t="s">
         <v>17</v>
@@ -7450,41 +7474,41 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D227" s="35" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D228" s="36" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B229" s="48" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D229" s="82" t="s">
         <v>49</v>
@@ -7492,13 +7516,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B230" s="48" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D230" s="70" t="s">
         <v>6</v>
@@ -7506,72 +7530,72 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D233" s="106" t="s">
         <v>286</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D233" s="106" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D234" s="37" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D235" s="38" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7585,7 +7609,7 @@
         <v>136</v>
       </c>
       <c r="D236" s="108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7596,7 +7620,7 @@
         <v>195</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D237" s="75" t="s">
         <v>29</v>
@@ -7604,13 +7628,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>20</v>
@@ -7618,58 +7642,58 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D239" s="146" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D240" s="68" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D241" s="125" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D242" s="130" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7688,13 +7712,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D244" s="22" t="s">
         <v>237</v>
@@ -7702,13 +7726,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D245" s="89" t="s">
         <v>139</v>
@@ -7744,13 +7768,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="D248" s="29" t="s">
         <v>185</v>
@@ -7758,13 +7782,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D249" s="80" t="s">
         <v>45</v>
@@ -7772,13 +7796,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D250" s="17" t="s">
         <v>223</v>
@@ -7786,55 +7810,55 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B251" s="48" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D251" s="56" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B252" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D252" s="57" t="s">
         <v>532</v>
-      </c>
-      <c r="B252" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D252" s="57" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D254" s="69" t="s">
         <v>44</v>
@@ -7870,13 +7894,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D257" s="13" t="s">
         <v>135</v>
@@ -7912,30 +7936,30 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D260" s="40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D261" s="118" t="s">
         <v>428</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D261" s="118" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7968,13 +7992,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C264" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>62</v>
@@ -7996,13 +8020,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="D266" s="82" t="s">
         <v>49</v>
@@ -8010,13 +8034,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D267" s="77" t="s">
         <v>38</v>
@@ -8052,27 +8076,27 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="23" t="s">
         <v>292</v>
-      </c>
-      <c r="D270" s="23" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D271" s="70" t="s">
         <v>6</v>
@@ -8080,13 +8104,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>20</v>
@@ -8094,58 +8118,58 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="107" t="s">
         <v>299</v>
-      </c>
-      <c r="D273" s="107" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="108" t="s">
         <v>302</v>
-      </c>
-      <c r="D274" s="108" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="D275" s="24" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="109" t="s">
         <v>308</v>
-      </c>
-      <c r="D276" s="109" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -8164,13 +8188,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D278" s="110" t="s">
         <v>62</v>
@@ -8178,13 +8202,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D279" s="110" t="s">
         <v>62</v>
@@ -8192,13 +8216,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>226</v>
@@ -8206,41 +8230,41 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="111" t="s">
         <v>315</v>
-      </c>
-      <c r="D281" s="111" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D282" s="145" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D283" s="75" t="s">
         <v>29</v>
@@ -8257,12 +8281,12 @@
         <v>196</v>
       </c>
       <c r="D284" s="126" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>196</v>
@@ -8271,7 +8295,7 @@
         <v>196</v>
       </c>
       <c r="D285" s="126" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -8318,13 +8342,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D289" s="105" t="s">
         <v>81</v>
@@ -8332,27 +8356,27 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="30" t="s">
         <v>360</v>
-      </c>
-      <c r="D290" s="30" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="D291" s="19" t="s">
         <v>233</v>
@@ -8360,27 +8384,27 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D292" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D293" s="58" t="s">
         <v>45</v>
@@ -8388,16 +8412,16 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="25" t="s">
         <v>320</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -8422,10 +8446,10 @@
         <v>164</v>
       </c>
       <c r="C296" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D296" s="137" t="s">
         <v>605</v>
-      </c>
-      <c r="D296" s="137" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8472,41 +8496,41 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>673</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="C300" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D300" s="142" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>674</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="C301" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D301" s="143" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>675</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="C302" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D302" s="75" t="s">
         <v>29</v>
@@ -8514,35 +8538,35 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>676</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="C303" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D303" s="147" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B304" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C304" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D304" s="137" t="s">
         <v>605</v>
-      </c>
-      <c r="D304" s="137" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>145</v>
@@ -8570,13 +8594,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B307" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D307" s="70" t="s">
         <v>6</v>
@@ -8584,13 +8608,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B308" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>20</v>
@@ -8598,13 +8622,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B309" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D309" s="75" t="s">
         <v>29</v>
@@ -8612,27 +8636,27 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B310" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D310" s="127" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B311" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D311" s="80" t="s">
         <v>45</v>
@@ -8640,27 +8664,27 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B312" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D312" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B313" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D313" s="105" t="s">
         <v>81</v>
@@ -8668,55 +8692,55 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B314" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D314" s="126" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B315" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D315" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D316" s="57" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D317" s="70" t="s">
         <v>6</v>
@@ -8724,13 +8748,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D318" s="75" t="s">
         <v>29</v>
@@ -8738,13 +8762,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D319" s="71" t="s">
         <v>9</v>
@@ -8752,27 +8776,27 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D320" s="137" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="D321" s="70" t="s">
         <v>6</v>
@@ -8780,52 +8804,52 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="D322" s="57" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D323" s="106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D324" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>197</v>
@@ -8836,27 +8860,27 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D326" s="57" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D327" s="71" t="s">
         <v>9</v>
@@ -8864,27 +8888,27 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D328" s="57" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D329" s="110" t="s">
         <v>62</v>
@@ -8892,27 +8916,27 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D330" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D331" s="148" t="s">
         <v>129</v>
@@ -8920,13 +8944,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>81</v>
@@ -8934,41 +8958,41 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>763</v>
+        <v>887</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D333" s="102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="149" t="s">
+        <v>259</v>
+      </c>
+      <c r="B334" s="149" t="s">
+        <v>888</v>
+      </c>
+      <c r="C334" s="149" t="s">
         <v>260</v>
       </c>
-      <c r="B334" s="149" t="s">
-        <v>260</v>
-      </c>
-      <c r="C334" s="149" t="s">
-        <v>261</v>
-      </c>
       <c r="D334" s="137" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D335" s="71" t="s">
         <v>9</v>
@@ -8976,13 +9000,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D336" s="86" t="s">
         <v>88</v>
@@ -8990,13 +9014,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>770</v>
+        <v>889</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D337" s="81" t="s">
         <v>25</v>
@@ -9004,13 +9028,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D338" s="80" t="s">
         <v>45</v>
@@ -9018,13 +9042,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D339" s="105" t="s">
         <v>81</v>
@@ -9032,27 +9056,27 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D340" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D341" s="79" t="s">
         <v>44</v>
@@ -9060,27 +9084,27 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D342" s="126" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D343" s="110" t="s">
         <v>62</v>
@@ -9088,27 +9112,27 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>135</v>
@@ -9116,13 +9140,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D346" s="112" t="s">
         <v>186</v>
@@ -9130,13 +9154,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D347" s="77" t="s">
         <v>38</v>
@@ -9144,27 +9168,27 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D348" s="127" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D349" s="80" t="s">
         <v>45</v>
@@ -9172,27 +9196,27 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D350" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D351" s="105" t="s">
         <v>81</v>
@@ -9200,27 +9224,27 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D352" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D353" s="83" t="s">
         <v>56</v>
@@ -9228,41 +9252,41 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D354" s="39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D355" s="139" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D356" s="75" t="s">
         <v>29</v>
@@ -9270,55 +9294,55 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D357" s="49" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D358" s="142" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D360" s="93" t="s">
         <v>193</v>
@@ -9326,27 +9350,27 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D361" s="144" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D362" s="110" t="s">
         <v>62</v>
@@ -9354,13 +9378,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>830</v>
+        <v>880</v>
       </c>
       <c r="C363" t="s">
-        <v>825</v>
+        <v>873</v>
       </c>
       <c r="D363" s="17" t="s">
         <v>223</v>
@@ -9368,41 +9392,41 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>831</v>
+        <v>879</v>
       </c>
       <c r="C364" t="s">
-        <v>826</v>
+        <v>874</v>
       </c>
       <c r="D364" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D365" s="137" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>833</v>
+        <v>878</v>
       </c>
       <c r="C366" t="s">
-        <v>828</v>
+        <v>875</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>12</v>
@@ -9410,13 +9434,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>834</v>
+        <v>877</v>
       </c>
       <c r="C367" t="s">
-        <v>829</v>
+        <v>876</v>
       </c>
       <c r="D367" s="82" t="s">
         <v>49</v>
@@ -9424,13 +9448,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="D368" s="17" t="s">
         <v>223</v>
@@ -9438,13 +9462,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="D369" s="82" t="s">
         <v>49</v>
@@ -9452,41 +9476,41 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D370" s="147" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D371" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="D372" s="77" t="s">
         <v>38</v>
@@ -9494,13 +9518,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D373" s="80" t="s">
         <v>45</v>
@@ -9508,13 +9532,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C374" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="D374" s="75" t="s">
         <v>29</v>
@@ -9522,13 +9546,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C375" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="D375" s="77" t="s">
         <v>38</v>
@@ -9536,27 +9560,27 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="D376" s="45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C377" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D377" s="80" t="s">
         <v>45</v>
@@ -9564,13 +9588,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>844</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>864</v>
-      </c>
       <c r="C378" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="D378" s="150" t="s">
         <v>6</v>
@@ -9578,27 +9602,27 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
+        <v>845</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>865</v>
-      </c>
       <c r="C379" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="D379" s="124" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
+        <v>846</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="C380" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D380" s="20" t="s">
         <v>237</v>
@@ -9606,13 +9630,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C381" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D381" s="105" t="s">
         <v>81</v>
@@ -9620,13 +9644,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
+        <v>848</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>868</v>
-      </c>
       <c r="C382" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D382" s="92" t="s">
         <v>185</v>
@@ -9634,27 +9658,27 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="C383" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D383" s="127" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C384" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D384" s="110" t="s">
         <v>62</v>
@@ -9662,13 +9686,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C385" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D385" s="151" t="s">
         <v>135</v>
@@ -9676,13 +9700,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="C386" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="D386" s="14" t="s">
         <v>146</v>
@@ -9690,30 +9714,30 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="C387" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D387" s="106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="D388" s="140" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C10EFE-C094-6E4F-B2A4-C35E2C058B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C73F9-797B-E34E-9C6F-4BD1420EB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="892">
   <si>
     <t>variable</t>
   </si>
@@ -2707,6 +2707,12 @@
   </si>
   <si>
     <t>Mat. premières de biomasse</t>
+  </si>
+  <si>
+    <t>District heat. and cool.</t>
+  </si>
+  <si>
+    <t>Réseaux de chaleur et clim.</t>
   </si>
 </sst>
 </file>
@@ -4301,8 +4307,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9741,7 +9747,15 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A389"/>
+      <c r="A389" t="s">
+        <v>890</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>890</v>
+      </c>
       <c r="D389" s="110"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C73F9-797B-E34E-9C6F-4BD1420EB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E123A19F-339A-474C-9B2B-86646AF54325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="893">
   <si>
     <t>variable</t>
   </si>
@@ -2713,6 +2713,9 @@
   </si>
   <si>
     <t>Réseaux de chaleur et clim.</t>
+  </si>
+  <si>
+    <t>District heating and cooling</t>
   </si>
 </sst>
 </file>
@@ -4308,7 +4311,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
+      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9748,7 +9751,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>891</v>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E123A19F-339A-474C-9B2B-86646AF54325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE1F30-4D4E-4F49-AE3F-23F1EB1B290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="897">
   <si>
     <t>variable</t>
   </si>
@@ -960,9 +960,6 @@
     <t>Système solaire thermique</t>
   </si>
   <si>
-    <t>Solar thermal system</t>
-  </si>
-  <si>
     <t>#ff7700</t>
   </si>
   <si>
@@ -1200,9 +1197,6 @@
     <t>Industrie - combustion</t>
   </si>
   <si>
-    <t>Industry – Combustion</t>
-  </si>
-  <si>
     <t>Industrie - Process</t>
   </si>
   <si>
@@ -2526,9 +2520,6 @@
     <t>CCS</t>
   </si>
   <si>
-    <t>CSC</t>
-  </si>
-  <si>
     <t>DAC (negative)</t>
   </si>
   <si>
@@ -2601,9 +2592,6 @@
     <t>Ciment</t>
   </si>
   <si>
-    <t>Produits chimiques basiques</t>
-  </si>
-  <si>
     <t>Pétrochimie</t>
   </si>
   <si>
@@ -2716,6 +2704,30 @@
   </si>
   <si>
     <t>District heating and cooling</t>
+  </si>
+  <si>
+    <t>Solaire thermique</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>Produits chimiques de base</t>
+  </si>
+  <si>
+    <t>CSC en industrie (hors BECSC)</t>
+  </si>
+  <si>
+    <t>CCS in industry (non-BECCS)</t>
+  </si>
+  <si>
+    <t>Industrie - procédés</t>
+  </si>
+  <si>
+    <t>Industry - Processes</t>
+  </si>
+  <si>
+    <t>Industry - Combustion</t>
   </si>
 </sst>
 </file>
@@ -4310,8 +4322,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4440,7 +4452,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>169</v>
@@ -4535,13 +4547,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D16" s="70" t="s">
         <v>6</v>
@@ -4549,13 +4561,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>49</v>
@@ -4563,13 +4575,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>6</v>
@@ -4577,13 +4589,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>49</v>
@@ -4591,30 +4603,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="115" t="s">
         <v>364</v>
-      </c>
-      <c r="D21" s="115" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4633,13 +4645,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D23" s="81" t="s">
         <v>25</v>
@@ -4647,13 +4659,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D24" s="92" t="s">
         <v>185</v>
@@ -4667,7 +4679,7 @@
         <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>185</v>
@@ -4675,13 +4687,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D26" s="92"/>
     </row>
@@ -4738,7 +4750,7 @@
         <v>200</v>
       </c>
       <c r="D30" s="136" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4749,7 +4761,7 @@
         <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>202</v>
@@ -4760,7 +4772,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -4774,7 +4786,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>54</v>
@@ -4822,18 +4834,18 @@
         <v>204</v>
       </c>
       <c r="D36" s="135" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D37" s="60" t="s">
         <v>185</v>
@@ -4869,13 +4881,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>25</v>
@@ -4897,13 +4909,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>44</v>
@@ -4911,13 +4923,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>186</v>
@@ -4925,13 +4937,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>186</v>
@@ -4939,16 +4951,16 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4967,16 +4979,16 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5023,30 +5035,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="42" t="s">
         <v>446</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="D52" s="43" t="s">
         <v>450</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -5060,7 +5072,7 @@
         <v>220</v>
       </c>
       <c r="D53" s="127" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -5093,25 +5105,25 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D57" s="110" t="s">
         <v>62</v>
@@ -5119,13 +5131,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D58" s="110" t="s">
         <v>62</v>
@@ -5133,16 +5145,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D59" s="120" t="s">
         <v>455</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D59" s="120" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -5189,13 +5201,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D63" s="70" t="s">
         <v>6</v>
@@ -5203,13 +5215,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>62</v>
@@ -5231,13 +5243,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="D66" s="80" t="s">
         <v>45</v>
@@ -5259,58 +5271,58 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="D68" s="44" t="s">
         <v>459</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="D69" s="45" t="s">
         <v>463</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="D70" s="46" t="s">
         <v>467</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="D71" s="47" t="s">
         <v>471</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -5343,13 +5355,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>186</v>
@@ -5357,13 +5369,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>186</v>
@@ -5374,13 +5386,13 @@
         <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D76" s="138" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5388,7 +5400,7 @@
         <v>238</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>239</v>
@@ -5402,7 +5414,7 @@
         <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>242</v>
@@ -5413,16 +5425,16 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D79" s="131" t="s">
         <v>590</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D79" s="131" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5441,13 +5453,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>81</v>
@@ -5469,27 +5481,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D83" s="147" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D84" s="85" t="s">
         <v>71</v>
@@ -5553,7 +5565,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>73</v>
@@ -5581,13 +5593,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>223</v>
@@ -5595,16 +5607,16 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D92" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5623,7 +5635,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>243</v>
@@ -5646,12 +5658,12 @@
         <v>246</v>
       </c>
       <c r="D95" s="139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>245</v>
@@ -5660,7 +5672,7 @@
         <v>246</v>
       </c>
       <c r="D96" s="139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5674,7 +5686,7 @@
         <v>246</v>
       </c>
       <c r="D97" s="139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5693,30 +5705,30 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="D99" s="49" t="s">
         <v>475</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D99" s="49" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="D100" s="50" t="s">
         <v>479</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D100" s="50" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5763,13 +5775,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>240</v>
@@ -5777,13 +5789,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>135</v>
@@ -5791,13 +5803,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>223</v>
@@ -5805,13 +5817,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>233</v>
@@ -5833,13 +5845,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B109" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C109" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D109" s="98" t="s">
         <v>218</v>
@@ -5861,16 +5873,16 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5889,13 +5901,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D113" s="93" t="s">
         <v>193</v>
@@ -5931,13 +5943,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>135</v>
@@ -5945,16 +5957,16 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D117" s="119" t="s">
         <v>438</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D117" s="119" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5962,10 +5974,10 @@
         <v>252</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>20</v>
@@ -5973,30 +5985,30 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D119" s="141" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" s="51" t="s">
         <v>482</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D120" s="51" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6043,13 +6055,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D124" s="92" t="s">
         <v>185</v>
@@ -6113,16 +6125,16 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="116" t="s">
         <v>382</v>
-      </c>
-      <c r="D129" s="116" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -6147,7 +6159,7 @@
         <v>258</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D131" s="71" t="s">
         <v>9</v>
@@ -6155,13 +6167,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="D132" s="71" t="s">
         <v>9</v>
@@ -6183,13 +6195,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D134" s="102" t="s">
         <v>261</v>
@@ -6206,7 +6218,7 @@
         <v>263</v>
       </c>
       <c r="D135" s="128" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -6253,13 +6265,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>240</v>
@@ -6267,13 +6279,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>32</v>
@@ -6335,13 +6347,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>387</v>
+        <v>896</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>62</v>
@@ -6349,27 +6361,27 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>188</v>
+        <v>894</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>187</v>
+        <v>895</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
@@ -6377,13 +6389,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D148" s="82" t="s">
         <v>49</v>
@@ -6391,13 +6403,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>292</v>
@@ -6405,27 +6417,27 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>664</v>
-      </c>
       <c r="D150" s="142" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D151" s="80" t="s">
         <v>45</v>
@@ -6433,13 +6445,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D152" s="20" t="s">
         <v>237</v>
@@ -6517,13 +6529,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D158" s="88" t="s">
         <v>119</v>
@@ -6531,16 +6543,16 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="D159" s="121" t="s">
         <v>488</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="D159" s="121" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6573,16 +6585,16 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D162" s="122" t="s">
         <v>491</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D162" s="122" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6601,13 +6613,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D164" s="112" t="s">
         <v>186</v>
@@ -6615,13 +6627,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D165" s="78" t="s">
         <v>41</v>
@@ -6629,13 +6641,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D166" s="89" t="s">
         <v>139</v>
@@ -6657,16 +6669,16 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D168" s="61" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6699,13 +6711,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D171" s="70" t="s">
         <v>6</v>
@@ -6755,30 +6767,30 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D175" s="62" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D176" s="63" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6811,13 +6823,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D179" s="64" t="s">
         <v>193</v>
@@ -6853,16 +6865,16 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D182" s="65" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6895,86 +6907,86 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="C185" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D185" s="134" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D187" s="133" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="C189" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D189" s="132" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>588</v>
-      </c>
       <c r="C190" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -7007,30 +7019,30 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D193" s="33" t="s">
         <v>397</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D193" s="33" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D194" s="66" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -7077,13 +7089,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D198" s="104" t="s">
         <v>278</v>
@@ -7091,13 +7103,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C199" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="D199" s="98" t="s">
         <v>218</v>
@@ -7105,16 +7117,16 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -7133,114 +7145,114 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D202" s="52" t="s">
         <v>500</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="D202" s="52" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D203" s="53" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C204" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="D204" s="54" t="s">
         <v>506</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D204" s="54" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="D205" s="55" t="s">
         <v>510</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="D205" s="55" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D206" s="67" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D207" s="123" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B208" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="D208" s="124" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D209" s="117" t="s">
         <v>400</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D209" s="117" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -7301,13 +7313,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D214" s="74" t="s">
         <v>26</v>
@@ -7357,41 +7369,41 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="D218" s="140" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="27" t="s">
         <v>344</v>
-      </c>
-      <c r="D219" s="27" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D220" s="28" t="s">
         <v>32</v>
@@ -7399,13 +7411,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D221" s="113" t="s">
         <v>29</v>
@@ -7413,13 +7425,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D222" s="93" t="s">
         <v>193</v>
@@ -7427,41 +7439,41 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D223" s="144" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D224" s="143" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D225" s="114" t="s">
         <v>17</v>
@@ -7469,13 +7481,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D226" s="114" t="s">
         <v>17</v>
@@ -7483,41 +7495,41 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D227" s="35" t="s">
         <v>407</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D227" s="35" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D228" s="36" t="s">
         <v>410</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D228" s="36" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B229" s="48" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D229" s="82" t="s">
         <v>49</v>
@@ -7525,13 +7537,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B230" s="48" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D230" s="70" t="s">
         <v>6</v>
@@ -7542,13 +7554,13 @@
         <v>283</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7556,13 +7568,13 @@
         <v>284</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7570,41 +7582,41 @@
         <v>285</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D233" s="106" t="s">
-        <v>286</v>
+        <v>621</v>
+      </c>
+      <c r="D233" s="76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D234" s="37" t="s">
         <v>413</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D234" s="37" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D235" s="38" t="s">
         <v>416</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D235" s="38" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7629,7 +7641,7 @@
         <v>195</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D237" s="75" t="s">
         <v>29</v>
@@ -7637,13 +7649,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>20</v>
@@ -7651,58 +7663,58 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D239" s="146" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D240" s="68" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D241" s="125" t="s">
         <v>522</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="D241" s="125" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D242" s="130" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7724,10 +7736,10 @@
         <v>287</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D244" s="22" t="s">
         <v>237</v>
@@ -7735,13 +7747,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D245" s="89" t="s">
         <v>139</v>
@@ -7777,13 +7789,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="D248" s="29" t="s">
         <v>185</v>
@@ -7791,13 +7803,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D249" s="80" t="s">
         <v>45</v>
@@ -7805,13 +7817,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="D250" s="17" t="s">
         <v>223</v>
@@ -7819,55 +7831,55 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B251" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D251" s="56" t="s">
         <v>526</v>
-      </c>
-      <c r="B251" s="48" t="s">
-        <v>567</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D251" s="56" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B252" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B252" s="48" t="s">
+      <c r="D252" s="57" t="s">
         <v>530</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D252" s="57" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D253" s="39" t="s">
         <v>419</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D253" s="39" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D254" s="69" t="s">
         <v>44</v>
@@ -7903,13 +7915,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D257" s="13" t="s">
         <v>135</v>
@@ -7945,30 +7957,30 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D260" s="40" t="s">
         <v>422</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D260" s="40" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="D261" s="118" t="s">
         <v>426</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D261" s="118" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -8001,13 +8013,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C264" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>62</v>
@@ -8043,13 +8055,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D267" s="77" t="s">
         <v>38</v>
@@ -8172,13 +8184,13 @@
         <v>306</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>306</v>
+        <v>889</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D276" s="109" t="s">
         <v>307</v>
-      </c>
-      <c r="D276" s="109" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -8197,13 +8209,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="D278" s="110" t="s">
         <v>62</v>
@@ -8211,13 +8223,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="D279" s="110" t="s">
         <v>62</v>
@@ -8225,13 +8237,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>226</v>
@@ -8239,41 +8251,41 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="111" t="s">
         <v>314</v>
-      </c>
-      <c r="D281" s="111" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D282" s="145" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D283" s="75" t="s">
         <v>29</v>
@@ -8290,12 +8302,12 @@
         <v>196</v>
       </c>
       <c r="D284" s="126" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>196</v>
@@ -8304,7 +8316,7 @@
         <v>196</v>
       </c>
       <c r="D285" s="126" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -8351,13 +8363,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D289" s="105" t="s">
         <v>81</v>
@@ -8365,27 +8377,27 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="30" t="s">
         <v>359</v>
-      </c>
-      <c r="D290" s="30" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D291" s="19" t="s">
         <v>233</v>
@@ -8393,27 +8405,27 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D292" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D293" s="58" t="s">
         <v>45</v>
@@ -8421,16 +8433,16 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="25" t="s">
         <v>319</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -8455,10 +8467,10 @@
         <v>164</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D296" s="137" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8505,41 +8517,41 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C300" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D300" s="142" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C301" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D301" s="143" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C302" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D302" s="75" t="s">
         <v>29</v>
@@ -8547,35 +8559,35 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C303" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D303" s="147" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B304" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D304" s="137" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>145</v>
@@ -8603,13 +8615,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B307" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D307" s="70" t="s">
         <v>6</v>
@@ -8617,13 +8629,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B308" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>20</v>
@@ -8631,13 +8643,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B309" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D309" s="75" t="s">
         <v>29</v>
@@ -8645,27 +8657,27 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B310" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D310" s="127" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B311" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D311" s="80" t="s">
         <v>45</v>
@@ -8673,13 +8685,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B312" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D312" s="24" t="s">
         <v>305</v>
@@ -8687,13 +8699,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B313" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D313" s="105" t="s">
         <v>81</v>
@@ -8701,55 +8713,55 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>695</v>
+      </c>
+      <c r="B314" t="s">
+        <v>695</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B314" t="s">
-        <v>697</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="D314" s="126" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>696</v>
+      </c>
+      <c r="B315" t="s">
+        <v>696</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B315" t="s">
-        <v>698</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="D315" s="39" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D316" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D317" s="70" t="s">
         <v>6</v>
@@ -8757,13 +8769,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D318" s="75" t="s">
         <v>29</v>
@@ -8771,13 +8783,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D319" s="71" t="s">
         <v>9</v>
@@ -8785,27 +8797,27 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D320" s="137" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D321" s="70" t="s">
         <v>6</v>
@@ -8813,27 +8825,27 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D322" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D323" s="106" t="s">
         <v>286</v>
@@ -8841,13 +8853,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D324" s="24" t="s">
         <v>305</v>
@@ -8855,10 +8867,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>197</v>
@@ -8869,27 +8881,27 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D326" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D327" s="71" t="s">
         <v>9</v>
@@ -8897,27 +8909,27 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D328" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D329" s="110" t="s">
         <v>62</v>
@@ -8925,27 +8937,27 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D330" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D331" s="148" t="s">
         <v>129</v>
@@ -8953,13 +8965,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D332" s="10" t="s">
         <v>81</v>
@@ -8967,13 +8979,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D333" s="102" t="s">
         <v>261</v>
@@ -8984,24 +8996,24 @@
         <v>259</v>
       </c>
       <c r="B334" s="149" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C334" s="149" t="s">
         <v>260</v>
       </c>
       <c r="D334" s="137" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D335" s="71" t="s">
         <v>9</v>
@@ -9009,13 +9021,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D336" s="86" t="s">
         <v>88</v>
@@ -9023,13 +9035,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D337" s="81" t="s">
         <v>25</v>
@@ -9037,13 +9049,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D338" s="80" t="s">
         <v>45</v>
@@ -9051,13 +9063,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="D339" s="105" t="s">
         <v>81</v>
@@ -9065,27 +9077,27 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D340" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="D341" s="79" t="s">
         <v>44</v>
@@ -9093,27 +9105,27 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>778</v>
-      </c>
       <c r="D342" s="126" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="D343" s="110" t="s">
         <v>62</v>
@@ -9121,27 +9133,27 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D344" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>135</v>
@@ -9149,13 +9161,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D346" s="112" t="s">
         <v>186</v>
@@ -9163,13 +9175,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D347" s="77" t="s">
         <v>38</v>
@@ -9177,27 +9189,27 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D348" s="127" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D349" s="80" t="s">
         <v>45</v>
@@ -9205,13 +9217,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D350" s="24" t="s">
         <v>305</v>
@@ -9219,13 +9231,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D351" s="105" t="s">
         <v>81</v>
@@ -9233,27 +9245,27 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D352" s="51" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D353" s="83" t="s">
         <v>56</v>
@@ -9261,41 +9273,41 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D354" s="39" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D355" s="139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D356" s="75" t="s">
         <v>29</v>
@@ -9303,41 +9315,41 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D357" s="49" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D358" s="142" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D359" s="24" t="s">
         <v>305</v>
@@ -9345,13 +9357,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D360" s="93" t="s">
         <v>193</v>
@@ -9359,27 +9371,27 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D361" s="144" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D362" s="110" t="s">
         <v>62</v>
@@ -9387,13 +9399,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C363" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D363" s="17" t="s">
         <v>223</v>
@@ -9401,41 +9413,41 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C364" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D364" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D365" s="137" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C366" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>12</v>
@@ -9443,13 +9455,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C367" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D367" s="82" t="s">
         <v>49</v>
@@ -9457,13 +9469,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="D368" s="17" t="s">
         <v>223</v>
@@ -9471,13 +9483,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>829</v>
+        <v>892</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>828</v>
+        <v>893</v>
       </c>
       <c r="D369" s="82" t="s">
         <v>49</v>
@@ -9485,27 +9497,27 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D370" s="147" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D371" s="24" t="s">
         <v>305</v>
@@ -9513,13 +9525,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D372" s="77" t="s">
         <v>38</v>
@@ -9527,13 +9539,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D373" s="80" t="s">
         <v>45</v>
@@ -9541,13 +9553,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C374" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D374" s="75" t="s">
         <v>29</v>
@@ -9555,13 +9567,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C375" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D375" s="77" t="s">
         <v>38</v>
@@ -9569,27 +9581,27 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D376" s="45" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C377" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D377" s="80" t="s">
         <v>45</v>
@@ -9597,13 +9609,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>854</v>
+        <v>891</v>
       </c>
       <c r="C378" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D378" s="150" t="s">
         <v>6</v>
@@ -9611,27 +9623,27 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C379" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D379" s="124" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C380" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D380" s="20" t="s">
         <v>237</v>
@@ -9639,13 +9651,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C381" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D381" s="105" t="s">
         <v>81</v>
@@ -9653,13 +9665,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C382" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D382" s="92" t="s">
         <v>185</v>
@@ -9667,27 +9679,27 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C383" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D383" s="127" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C384" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D384" s="110" t="s">
         <v>62</v>
@@ -9695,13 +9707,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C385" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D385" s="151" t="s">
         <v>135</v>
@@ -9709,13 +9721,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C386" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D386" s="14" t="s">
         <v>146</v>
@@ -9723,13 +9735,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C387" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D387" s="106" t="s">
         <v>286</v>
@@ -9737,27 +9749,27 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D388" s="140" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D389" s="110"/>
     </row>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AE1F30-4D4E-4F49-AE3F-23F1EB1B290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1C0F4-FA64-5246-8280-2D55CF2FF8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2574,9 +2574,6 @@
     <t>Construction</t>
   </si>
   <si>
-    <t>Forestery</t>
-  </si>
-  <si>
     <t>Non ferrous metal</t>
   </si>
   <si>
@@ -2728,6 +2725,9 @@
   </si>
   <si>
     <t>Industry - Combustion</t>
+  </si>
+  <si>
+    <t>Forestry</t>
   </si>
 </sst>
 </file>
@@ -4322,8 +4322,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A383" sqref="A383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4929,7 +4929,7 @@
         <v>576</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>186</v>
@@ -4943,7 +4943,7 @@
         <v>714</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>186</v>
@@ -5792,10 +5792,10 @@
         <v>373</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>135</v>
@@ -5974,10 +5974,10 @@
         <v>252</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>20</v>
@@ -6282,10 +6282,10 @@
         <v>383</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>32</v>
@@ -6353,7 +6353,7 @@
         <v>385</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>62</v>
@@ -6364,10 +6364,10 @@
         <v>386</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="D146" s="32" t="s">
         <v>387</v>
@@ -7378,7 +7378,7 @@
         <v>341</v>
       </c>
       <c r="D218" s="140" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,10 +8184,10 @@
         <v>306</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="D276" s="109" t="s">
         <v>307</v>
@@ -8982,7 +8982,7 @@
         <v>756</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>757</v>
@@ -8996,7 +8996,7 @@
         <v>259</v>
       </c>
       <c r="B334" s="149" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C334" s="149" t="s">
         <v>260</v>
@@ -9038,7 +9038,7 @@
         <v>762</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>762</v>
@@ -9402,10 +9402,10 @@
         <v>817</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C363" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D363" s="17" t="s">
         <v>223</v>
@@ -9416,10 +9416,10 @@
         <v>818</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C364" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D364" s="25" t="s">
         <v>319</v>
@@ -9444,10 +9444,10 @@
         <v>820</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C366" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>12</v>
@@ -9458,10 +9458,10 @@
         <v>821</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C367" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D367" s="82" t="s">
         <v>49</v>
@@ -9486,10 +9486,10 @@
         <v>826</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D369" s="82" t="s">
         <v>49</v>
@@ -9570,7 +9570,7 @@
         <v>838</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C375" t="s">
         <v>838</v>
@@ -9584,7 +9584,7 @@
         <v>839</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>839</v>
@@ -9598,7 +9598,7 @@
         <v>840</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C377" t="s">
         <v>840</v>
@@ -9612,7 +9612,7 @@
         <v>841</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C378" t="s">
         <v>841</v>
@@ -9626,7 +9626,7 @@
         <v>842</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C379" t="s">
         <v>842</v>
@@ -9640,10 +9640,10 @@
         <v>843</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C380" t="s">
         <v>852</v>
-      </c>
-      <c r="C380" t="s">
-        <v>853</v>
       </c>
       <c r="D380" s="20" t="s">
         <v>237</v>
@@ -9665,13 +9665,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>845</v>
+        <v>896</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C382" t="s">
-        <v>845</v>
+        <v>896</v>
       </c>
       <c r="D382" s="92" t="s">
         <v>185</v>
@@ -9679,13 +9679,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C383" t="s">
         <v>855</v>
-      </c>
-      <c r="C383" t="s">
-        <v>856</v>
       </c>
       <c r="D383" s="127" t="s">
         <v>581</v>
@@ -9693,13 +9693,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C384" t="s">
         <v>857</v>
-      </c>
-      <c r="C384" t="s">
-        <v>858</v>
       </c>
       <c r="D384" s="110" t="s">
         <v>62</v>
@@ -9707,13 +9707,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>638</v>
       </c>
       <c r="C385" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D385" s="151" t="s">
         <v>135</v>
@@ -9721,13 +9721,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C386" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D386" s="14" t="s">
         <v>146</v>
@@ -9735,13 +9735,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C387" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D387" s="106" t="s">
         <v>286</v>
@@ -9749,27 +9749,27 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D388" s="140" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D389" s="110"/>
     </row>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1C0F4-FA64-5246-8280-2D55CF2FF8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A0BE9-874F-4D48-9131-253B1D63AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2715,9 +2715,6 @@
     <t>CSC en industrie (hors BECSC)</t>
   </si>
   <si>
-    <t>CCS in industry (non-BECCS)</t>
-  </si>
-  <si>
     <t>Industrie - procédés</t>
   </si>
   <si>
@@ -2728,6 +2725,9 @@
   </si>
   <si>
     <t>Forestry</t>
+  </si>
+  <si>
+    <t>CCS in industry (excl. BECCS)</t>
   </si>
 </sst>
 </file>
@@ -4322,8 +4322,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A383" sqref="A383"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6353,7 +6353,7 @@
         <v>385</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>62</v>
@@ -6364,10 +6364,10 @@
         <v>386</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="D146" s="32" t="s">
         <v>387</v>
@@ -9489,7 +9489,7 @@
         <v>891</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D369" s="82" t="s">
         <v>49</v>
@@ -9665,13 +9665,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>853</v>
       </c>
       <c r="C382" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D382" s="92" t="s">
         <v>185</v>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Génération figures/Données figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A0BE9-874F-4D48-9131-253B1D63AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD122B-C6A2-774C-A27A-18C5E06AE682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2532,9 +2532,6 @@
     <t>Biochar (negative)</t>
   </si>
   <si>
-    <t>Biocharbon (émissions négatives)</t>
-  </si>
-  <si>
     <t>Biochar (negative emissions)</t>
   </si>
   <si>
@@ -2728,6 +2725,9 @@
   </si>
   <si>
     <t>CCS in industry (excl. BECCS)</t>
+  </si>
+  <si>
+    <t>Biochar (émissions négatives)</t>
   </si>
 </sst>
 </file>
@@ -4323,7 +4323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B369" sqref="B369"/>
+      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4929,7 +4929,7 @@
         <v>576</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>186</v>
@@ -4943,7 +4943,7 @@
         <v>714</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>186</v>
@@ -5792,10 +5792,10 @@
         <v>373</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>135</v>
@@ -5974,10 +5974,10 @@
         <v>252</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>20</v>
@@ -6282,10 +6282,10 @@
         <v>383</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="D140" s="28" t="s">
         <v>32</v>
@@ -6353,7 +6353,7 @@
         <v>385</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>62</v>
@@ -6364,10 +6364,10 @@
         <v>386</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D146" s="32" t="s">
         <v>387</v>
@@ -7378,7 +7378,7 @@
         <v>341</v>
       </c>
       <c r="D218" s="140" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8184,10 +8184,10 @@
         <v>306</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="D276" s="109" t="s">
         <v>307</v>
@@ -8982,7 +8982,7 @@
         <v>756</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>757</v>
@@ -8996,7 +8996,7 @@
         <v>259</v>
       </c>
       <c r="B334" s="149" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C334" s="149" t="s">
         <v>260</v>
@@ -9038,7 +9038,7 @@
         <v>762</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>762</v>
@@ -9402,10 +9402,10 @@
         <v>817</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C363" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D363" s="17" t="s">
         <v>223</v>
@@ -9416,10 +9416,10 @@
         <v>818</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C364" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D364" s="25" t="s">
         <v>319</v>
@@ -9444,10 +9444,10 @@
         <v>820</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C366" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>12</v>
@@ -9458,10 +9458,10 @@
         <v>821</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C367" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D367" s="82" t="s">
         <v>49</v>
@@ -9486,10 +9486,10 @@
         <v>826</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D369" s="82" t="s">
         <v>49</v>
@@ -9514,10 +9514,10 @@
         <v>830</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>832</v>
       </c>
       <c r="D371" s="24" t="s">
         <v>305</v>
@@ -9525,13 +9525,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="C372" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D372" s="77" t="s">
         <v>38</v>
@@ -9539,13 +9539,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>836</v>
-      </c>
       <c r="C373" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D373" s="80" t="s">
         <v>45</v>
@@ -9553,13 +9553,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C374" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D374" s="75" t="s">
         <v>29</v>
@@ -9567,13 +9567,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C375" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D375" s="77" t="s">
         <v>38</v>
@@ -9581,13 +9581,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D376" s="45" t="s">
         <v>463</v>
@@ -9595,13 +9595,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C377" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D377" s="80" t="s">
         <v>45</v>
@@ -9609,13 +9609,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C378" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D378" s="150" t="s">
         <v>6</v>
@@ -9623,13 +9623,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C379" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D379" s="124" t="s">
         <v>571</v>
@@ -9637,13 +9637,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C380" t="s">
         <v>851</v>
-      </c>
-      <c r="C380" t="s">
-        <v>852</v>
       </c>
       <c r="D380" s="20" t="s">
         <v>237</v>
@@ -9651,13 +9651,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C381" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D381" s="105" t="s">
         <v>81</v>
@@ -9665,13 +9665,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C382" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D382" s="92" t="s">
         <v>185</v>
@@ -9679,13 +9679,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C383" t="s">
         <v>854</v>
-      </c>
-      <c r="C383" t="s">
-        <v>855</v>
       </c>
       <c r="D383" s="127" t="s">
         <v>581</v>
@@ -9693,13 +9693,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C384" t="s">
         <v>856</v>
-      </c>
-      <c r="C384" t="s">
-        <v>857</v>
       </c>
       <c r="D384" s="110" t="s">
         <v>62</v>
@@ -9707,13 +9707,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>638</v>
       </c>
       <c r="C385" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D385" s="151" t="s">
         <v>135</v>
@@ -9721,13 +9721,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C386" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D386" s="14" t="s">
         <v>146</v>
@@ -9735,13 +9735,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C387" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D387" s="106" t="s">
         <v>286</v>
@@ -9749,27 +9749,27 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D388" s="140" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D389" s="110"/>
     </row>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD122B-C6A2-774C-A27A-18C5E06AE682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAA9CA-D8CF-4C40-9A0B-C8BFE1220803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="897">
   <si>
     <t>variable</t>
   </si>
@@ -3569,7 +3569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4022,6 +4022,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4322,8 +4328,8 @@
   <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9771,17 +9777,19 @@
       <c r="C389" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D389" s="110"/>
+      <c r="D389" s="127" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D390" s="151"/>
+      <c r="D390" s="152"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391"/>
-      <c r="D391" s="14"/>
+      <c r="D391" s="153"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D392" s="106"/>
+      <c r="D392" s="153"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAA9CA-D8CF-4C40-9A0B-C8BFE1220803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9C252-4C33-B946-8DA9-E6E3ACAFE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="899">
   <si>
     <t>variable</t>
   </si>
@@ -2728,6 +2728,12 @@
   </si>
   <si>
     <t>Biochar (émissions négatives)</t>
+  </si>
+  <si>
+    <t>Fuel oil &amp; RPP</t>
+  </si>
+  <si>
+    <t>Mazout et PPR</t>
   </si>
 </sst>
 </file>
@@ -3569,7 +3575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4022,12 +4028,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4325,11 +4325,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D391" sqref="D391"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9782,14 +9782,21 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D390" s="152"/>
+      <c r="A390" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D390" s="110" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391"/>
-      <c r="D391" s="153"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D392" s="153"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Figures/Données figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9C252-4C33-B946-8DA9-E6E3ACAFE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFFF95-1A40-784E-86C6-2903BD3C1D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="907">
   <si>
     <t>variable</t>
   </si>
@@ -2734,13 +2734,37 @@
   </si>
   <si>
     <t>Mazout et PPR</t>
+  </si>
+  <si>
+    <t>Jan 2nd, residential</t>
+  </si>
+  <si>
+    <t>June 23rd, residential</t>
+  </si>
+  <si>
+    <t>Jan 2nd, total</t>
+  </si>
+  <si>
+    <t>June 23rd, total</t>
+  </si>
+  <si>
+    <t>2 janv., résidentiel</t>
+  </si>
+  <si>
+    <t>23 juin, résidentiel</t>
+  </si>
+  <si>
+    <t>2 janv., total</t>
+  </si>
+  <si>
+    <t>23 juin, total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2774,6 +2798,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="132">
     <fill>
@@ -3563,7 +3592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3571,11 +3600,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4028,6 +4072,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4325,11 +4372,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9796,7 +9843,60 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391"/>
+      <c r="A391" s="152" t="s">
+        <v>899</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C391" s="152" t="s">
+        <v>899</v>
+      </c>
+      <c r="D391" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="152" t="s">
+        <v>900</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C392" s="152" t="s">
+        <v>900</v>
+      </c>
+      <c r="D392" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D393" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D394" s="82" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Energy Outlook 3e edition/Figures/Données figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Projet avec NZA/Report/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFFF95-1A40-784E-86C6-2903BD3C1D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE0A687-42B7-3243-8960-8B42A8633FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4375,8 +4375,8 @@
   <dimension ref="A1:D394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D394" sqref="D394"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5220,8 +5220,8 @@
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="70" t="s">
-        <v>6</v>
+      <c r="D60" s="120" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7122,8 +7122,8 @@
       <c r="C196" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D196" s="5" t="s">
-        <v>25</v>
+      <c r="D196" s="66" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Projet avec NZA/Report/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE0A687-42B7-3243-8960-8B42A8633FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A93FB8-C0EC-9741-B153-6B14A11E38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="925">
   <si>
     <t>variable</t>
   </si>
@@ -2758,6 +2758,60 @@
   </si>
   <si>
     <t>23 juin, total</t>
+  </si>
+  <si>
+    <t>Wood Heat; Existing</t>
+  </si>
+  <si>
+    <t>Wood and Electric Dual System; Existing</t>
+  </si>
+  <si>
+    <t>Wood and Oil Dual System; Existing</t>
+  </si>
+  <si>
+    <t>Furnace; Heating Oil; Existing</t>
+  </si>
+  <si>
+    <t>Oil Furnace</t>
+  </si>
+  <si>
+    <t>Furnace; Natural Gas; Existing</t>
+  </si>
+  <si>
+    <t>Natural Gas Furnace</t>
+  </si>
+  <si>
+    <t>Electric Baseboard; Existing</t>
+  </si>
+  <si>
+    <t>Ductless Air Source Heat Pump; Existing</t>
+  </si>
+  <si>
+    <t>Heat Pump (Ductless) with EBB backup</t>
+  </si>
+  <si>
+    <t>Heat Pump (Ductless) with oil backup</t>
+  </si>
+  <si>
+    <t>Heat Pump (Ductless) with wood backup</t>
+  </si>
+  <si>
+    <t>Heat Pump (Ductless) with NG backup</t>
+  </si>
+  <si>
+    <t>Bi-énergie bois et électrique; Existant</t>
+  </si>
+  <si>
+    <t>Bois; Existant</t>
+  </si>
+  <si>
+    <t>Bi-énergie bois et mazout; Existant</t>
+  </si>
+  <si>
+    <t>Heating oil furnace; Existing</t>
+  </si>
+  <si>
+    <t>Heating oil furnace</t>
   </si>
 </sst>
 </file>
@@ -4372,11 +4426,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D394"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9898,6 +9952,158 @@
         <v>49</v>
       </c>
     </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D395" s="49" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D396" s="142" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D397" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D398" s="89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D399" s="45" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D400" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D401" s="151" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D402" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D403" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D404" s="83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D405" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D406" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D407" s="92" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Projet avec NZA/Report/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A93FB8-C0EC-9741-B153-6B14A11E38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE13F9E-D5D7-3D48-93F6-28DCC04DDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="935">
   <si>
     <t>variable</t>
   </si>
@@ -2812,6 +2812,36 @@
   </si>
   <si>
     <t>Heating oil furnace</t>
+  </si>
+  <si>
+    <t>LE-LP</t>
+  </si>
+  <si>
+    <t>ME-LP</t>
+  </si>
+  <si>
+    <t>HE-LP</t>
+  </si>
+  <si>
+    <t>HE-LP-EBREP</t>
+  </si>
+  <si>
+    <t>HE-LP-EBREP-HYB</t>
+  </si>
+  <si>
+    <t>LE-HP</t>
+  </si>
+  <si>
+    <t>ME-HP</t>
+  </si>
+  <si>
+    <t>HE-HP</t>
+  </si>
+  <si>
+    <t>HE-HP-EBREP</t>
+  </si>
+  <si>
+    <t>HE-HP-EBREP-HYB</t>
   </si>
 </sst>
 </file>
@@ -4426,11 +4456,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D403" sqref="D403"/>
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10104,6 +10134,146 @@
         <v>185</v>
       </c>
     </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D408" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D409" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D410" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D411" s="83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D412" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D413" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D414" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D415" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D416" s="83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D417" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Projet avec NZA/Report/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE13F9E-D5D7-3D48-93F6-28DCC04DDD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14963F11-C9D1-C849-A835-279D0D8C7F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'liste référence'!$A$1:$D$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'liste référence'!$A$1:$D$305</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="945">
   <si>
     <t>variable</t>
   </si>
@@ -1332,9 +1332,6 @@
     <t>Électricité - Biomasse + CSC</t>
   </si>
   <si>
-    <t>Hydrogen – Biomass + CCS</t>
-  </si>
-  <si>
     <t>Électricité - Centralisée</t>
   </si>
   <si>
@@ -2842,6 +2839,39 @@
   </si>
   <si>
     <t>HE-HP-EBREP-HYB</t>
+  </si>
+  <si>
+    <t>Biomasse + CCS</t>
+  </si>
+  <si>
+    <t>Biomasse + CSC</t>
+  </si>
+  <si>
+    <t>Biomass + CCS</t>
+  </si>
+  <si>
+    <t>Gaz naturel (CCS)</t>
+  </si>
+  <si>
+    <t>Natural gas (CCS)</t>
+  </si>
+  <si>
+    <t>Energy storage (2h)</t>
+  </si>
+  <si>
+    <t>Energy storage (4h)</t>
+  </si>
+  <si>
+    <t>Stockage (2h)</t>
+  </si>
+  <si>
+    <t>Stockage (4h)</t>
+  </si>
+  <si>
+    <t>Storage (2h)</t>
+  </si>
+  <si>
+    <t>Storage (4h)</t>
   </si>
 </sst>
 </file>
@@ -4456,11 +4486,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D417"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D422" sqref="D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4589,7 +4619,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>169</v>
@@ -4684,13 +4714,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D16" s="70" t="s">
         <v>6</v>
@@ -4698,13 +4728,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>708</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>49</v>
@@ -4712,13 +4742,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D18" s="70" t="s">
         <v>6</v>
@@ -4726,13 +4756,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>49</v>
@@ -4740,16 +4770,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>533</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,13 +4812,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D23" s="81" t="s">
         <v>25</v>
@@ -4796,13 +4826,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D24" s="92" t="s">
         <v>185</v>
@@ -4816,7 +4846,7 @@
         <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D25" s="92" t="s">
         <v>185</v>
@@ -4824,13 +4854,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D26" s="92"/>
     </row>
@@ -4887,7 +4917,7 @@
         <v>200</v>
       </c>
       <c r="D30" s="136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,7 +4928,7 @@
         <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>202</v>
@@ -4909,7 +4939,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -4923,7 +4953,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>54</v>
@@ -4971,18 +5001,18 @@
         <v>204</v>
       </c>
       <c r="D36" s="135" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D37" s="60" t="s">
         <v>185</v>
@@ -5060,13 +5090,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="C43" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>186</v>
@@ -5074,13 +5104,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>714</v>
-      </c>
       <c r="C44" s="7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>186</v>
@@ -5088,16 +5118,16 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5116,16 +5146,16 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5172,30 +5202,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="42" t="s">
         <v>445</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="43" t="s">
         <v>449</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -5209,7 +5239,7 @@
         <v>220</v>
       </c>
       <c r="D53" s="127" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -5242,25 +5272,25 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D57" s="110" t="s">
         <v>62</v>
@@ -5268,13 +5298,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D58" s="110" t="s">
         <v>62</v>
@@ -5282,16 +5312,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="120" t="s">
         <v>454</v>
-      </c>
-      <c r="D59" s="120" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -5305,7 +5335,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="120" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -5338,13 +5368,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D63" s="70" t="s">
         <v>6</v>
@@ -5408,58 +5438,58 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="44" t="s">
         <v>458</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="45" t="s">
         <v>462</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="46" t="s">
         <v>466</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="47" t="s">
         <v>470</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -5492,13 +5522,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>186</v>
@@ -5506,13 +5536,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>186</v>
@@ -5523,13 +5553,13 @@
         <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="D76" s="138" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,7 +5567,7 @@
         <v>238</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>239</v>
@@ -5551,7 +5581,7 @@
         <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>242</v>
@@ -5562,16 +5592,16 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D79" s="131" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5621,13 +5651,13 @@
         <v>367</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>367</v>
       </c>
       <c r="D83" s="147" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5635,7 +5665,7 @@
         <v>368</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>369</v>
@@ -5702,7 +5732,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>73</v>
@@ -5736,7 +5766,7 @@
         <v>430</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>223</v>
@@ -5744,475 +5774,475 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>370</v>
+        <v>934</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>632</v>
+        <v>935</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>371</v>
+        <v>936</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>243</v>
+        <v>937</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>243</v>
+        <v>937</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D93" s="73" t="s">
-        <v>17</v>
+        <v>938</v>
+      </c>
+      <c r="D93" s="138" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>631</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>17</v>
+        <v>630</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="139" t="s">
-        <v>609</v>
+        <v>244</v>
+      </c>
+      <c r="D95" s="73" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D96" s="139" t="s">
-        <v>609</v>
+        <v>244</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D97" s="139" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="139" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="139" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D98" s="75" t="s">
+      <c r="D100" s="75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B101" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="C101" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D101" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="D99" s="49" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="B102" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="C102" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D102" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="D100" s="50" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="78" t="s">
+      <c r="D103" s="78" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D102" s="100" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D103" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D104" s="21" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="D104" s="100" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>373</v>
+      <c r="A105" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>135</v>
+        <v>75</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>223</v>
+        <v>669</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D109" s="19" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>657</v>
-      </c>
-      <c r="B109" t="s">
-        <v>657</v>
-      </c>
-      <c r="C109" t="s">
-        <v>658</v>
-      </c>
-      <c r="D109" s="98" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D110" s="80" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>602</v>
+      <c r="A111" t="s">
+        <v>656</v>
+      </c>
+      <c r="B111" t="s">
+        <v>656</v>
+      </c>
+      <c r="C111" t="s">
+        <v>657</v>
+      </c>
+      <c r="D111" s="98" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>79</v>
+      <c r="A112" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>328</v>
+        <v>597</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>328</v>
+        <v>598</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D113" s="93" t="s">
-        <v>193</v>
+        <v>597</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>20</v>
+        <v>329</v>
+      </c>
+      <c r="D115" s="93" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>434</v>
+        <v>10</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>624</v>
+        <v>11</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>436</v>
+        <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>625</v>
+        <v>19</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D117" s="119" t="s">
-        <v>438</v>
+        <v>18</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>252</v>
+        <v>433</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>865</v>
+        <v>623</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>20</v>
+        <v>434</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>330</v>
+        <v>624</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D119" s="141" t="s">
-        <v>612</v>
+        <v>436</v>
+      </c>
+      <c r="D119" s="119" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>480</v>
+      <c r="A120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D120" s="51" t="s">
-        <v>482</v>
+        <v>865</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D121" s="141" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D122" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D121" s="77" t="s">
+      <c r="D123" s="77" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D122" s="101" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D123" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D124" s="92" t="s">
-        <v>185</v>
+        <v>256</v>
+      </c>
+      <c r="D124" s="101" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D125" s="80" t="s">
         <v>45</v>
@@ -6220,431 +6250,431 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D126" s="86" t="s">
-        <v>88</v>
+        <v>379</v>
+      </c>
+      <c r="D126" s="92" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>89</v>
+      <c r="A127" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D127" s="72" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="72" t="s">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="D128" s="86" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D129" s="116" t="s">
-        <v>382</v>
+        <v>89</v>
+      </c>
+      <c r="D129" s="72" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>91</v>
+      <c r="A130" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="80" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="72" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D131" s="71" t="s">
-        <v>9</v>
+        <v>381</v>
+      </c>
+      <c r="D131" s="116" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>652</v>
+      <c r="A132" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D132" s="71" t="s">
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D133" s="102" t="s">
-        <v>261</v>
+        <v>654</v>
+      </c>
+      <c r="D133" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D134" s="102" t="s">
-        <v>261</v>
+      <c r="D134" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D135" s="128" t="s">
-        <v>580</v>
+        <v>260</v>
+      </c>
+      <c r="D135" s="102" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="73" t="s">
-        <v>17</v>
+        <v>655</v>
+      </c>
+      <c r="D136" s="102" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D137" s="73" t="s">
-        <v>17</v>
+        <v>263</v>
+      </c>
+      <c r="D137" s="128" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D138" s="103" t="s">
-        <v>268</v>
+        <v>16</v>
+      </c>
+      <c r="D138" s="73" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>569</v>
+        <v>264</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>240</v>
+        <v>265</v>
+      </c>
+      <c r="D139" s="73" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>879</v>
+        <v>266</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="D140" s="28" t="s">
-        <v>32</v>
+        <v>267</v>
+      </c>
+      <c r="D140" s="103" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>93</v>
+        <v>438</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>94</v>
+        <v>568</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D141" s="80" t="s">
-        <v>45</v>
+        <v>439</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>188</v>
+        <v>878</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D142" s="80" t="s">
-        <v>45</v>
+        <v>879</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D143" s="76" t="s">
-        <v>35</v>
+        <v>93</v>
+      </c>
+      <c r="D143" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D144" s="76"/>
+        <v>187</v>
+      </c>
+      <c r="D144" s="80" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>385</v>
+        <v>269</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>62</v>
+        <v>270</v>
+      </c>
+      <c r="D145" s="76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>891</v>
+        <v>269</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D146" s="32" t="s">
-        <v>387</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D146" s="76"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>664</v>
+        <v>385</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>12</v>
+        <v>892</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>665</v>
+        <v>890</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D148" s="82" t="s">
-        <v>49</v>
+        <v>891</v>
+      </c>
+      <c r="D148" s="32" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>292</v>
+        <v>662</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D150" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D150" s="142" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="D151" s="80" t="s">
-        <v>45</v>
+      <c r="D151" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D152" s="142" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D153" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D152" s="20" t="s">
+      <c r="D154" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D153" s="16" t="s">
+      <c r="D155" s="16" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D154" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D155" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D156" s="80" t="s">
         <v>45</v>
@@ -6652,1273 +6682,1273 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D157" s="80" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D158" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D159" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C158" s="7" t="s">
+      <c r="D160" s="88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D158" s="88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="D161" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="D159" s="121" t="s">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D162" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D163" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D160" s="80" t="s">
+      <c r="B164" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D164" s="122" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D165" s="80" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D161" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D162" s="122" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D163" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D164" s="112" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D165" s="78" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D166" s="89" t="s">
-        <v>139</v>
+        <v>333</v>
+      </c>
+      <c r="D166" s="112" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D167" s="93" t="s">
-        <v>193</v>
+        <v>750</v>
+      </c>
+      <c r="D167" s="78" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="D168" s="61" t="s">
-        <v>540</v>
+      <c r="A168" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D168" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D169" s="104" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="D169" s="93" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D170" s="80" t="s">
-        <v>45</v>
+      <c r="A170" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D170" s="61" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D171" s="104" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D172" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D171" s="70" t="s">
+      <c r="D173" s="70" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D172" s="95" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D173" s="87" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D174" s="95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D175" s="87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D177" s="62" t="s">
         <v>541</v>
       </c>
-      <c r="B175" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="D175" s="62" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
+      <c r="B178" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D178" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="B176" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D176" s="63" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D179" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D180" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="7" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D177" s="80" t="s">
+      <c r="B181" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D181" s="64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" s="88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D183" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D178" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B184" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C184" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D179" s="64" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D180" s="88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D181" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="D184" s="65" t="s">
         <v>546</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D182" s="65" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D183" s="105" t="s">
+      <c r="D185" s="105" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D184" s="105" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="D185" s="134" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>585</v>
+        <v>280</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>587</v>
+        <v>279</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>537</v>
+        <v>280</v>
+      </c>
+      <c r="D186" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="D187" s="133" t="s">
+        <v>584</v>
+      </c>
+      <c r="D187" s="134" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>584</v>
+        <v>491</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="D189" s="132" t="s">
+        <v>491</v>
+      </c>
+      <c r="D189" s="133" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>584</v>
+        <v>491</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>584</v>
+        <v>491</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>25</v>
+      <c r="A191" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D191" s="132" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B194" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D192" s="93" t="s">
+      <c r="D194" s="93" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D193" s="33" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="D194" s="66" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>22</v>
+        <v>396</v>
+      </c>
+      <c r="D195" s="33" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>23</v>
+      <c r="A196" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="D196" s="66" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" s="66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D197" s="11" t="s">
+      <c r="D199" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C200" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B198" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C198" s="7" t="s">
+      <c r="D200" s="104" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="D198" s="104" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
+      <c r="B201" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="C201" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="C199" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="D199" s="98" t="s">
+      <c r="D201" s="98" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
+      <c r="C202" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D201" s="12" t="s">
+      <c r="D203" s="12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D202" s="52" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D203" s="53" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="D204" s="54" t="s">
-        <v>506</v>
+        <v>498</v>
+      </c>
+      <c r="D204" s="52" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D205" s="55" t="s">
-        <v>510</v>
+        <v>501</v>
+      </c>
+      <c r="D205" s="53" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="D206" s="67" t="s">
-        <v>551</v>
+        <v>504</v>
+      </c>
+      <c r="D206" s="54" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="B207" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D207" s="123" t="s">
-        <v>570</v>
+        <v>506</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D207" s="55" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D208" s="67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B209" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D209" s="123" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B210" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="C210" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D208" s="124" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D209" s="117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="71" t="s">
-        <v>9</v>
+      <c r="D210" s="124" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D211" s="117" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D211" s="28" t="s">
+      <c r="D213" s="28" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D212" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D213" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>703</v>
+        <v>130</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D214" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D215" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="B216" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D214" s="74" t="s">
+      <c r="C216" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D216" s="74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D215" s="75" t="s">
+      <c r="D217" s="75" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D216" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>340</v>
+        <v>30</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D218" s="140" t="s">
-        <v>860</v>
+        <v>30</v>
+      </c>
+      <c r="D218" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
-        <v>342</v>
+      <c r="A219" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D219" s="27" t="s">
-        <v>344</v>
+        <v>134</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D220" s="28" t="s">
-        <v>32</v>
+        <v>341</v>
+      </c>
+      <c r="D220" s="140" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D221" s="113" t="s">
-        <v>29</v>
+        <v>343</v>
+      </c>
+      <c r="D221" s="27" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D222" s="93" t="s">
-        <v>193</v>
+        <v>346</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>607</v>
+        <v>336</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D223" s="144" t="s">
-        <v>635</v>
+        <v>337</v>
+      </c>
+      <c r="D223" s="113" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>608</v>
+        <v>401</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D224" s="143" t="s">
-        <v>634</v>
+        <v>621</v>
+      </c>
+      <c r="D224" s="93" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>338</v>
+        <v>606</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D225" s="114" t="s">
-        <v>17</v>
+        <v>604</v>
+      </c>
+      <c r="D225" s="144" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>338</v>
+        <v>607</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D226" s="114" t="s">
-        <v>17</v>
+        <v>605</v>
+      </c>
+      <c r="D226" s="143" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D227" s="35" t="s">
-        <v>407</v>
+        <v>339</v>
+      </c>
+      <c r="D227" s="114" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D228" s="114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D229" s="35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D228" s="36" t="s">
+      <c r="D230" s="36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B229" s="48" t="s">
-        <v>564</v>
-      </c>
-      <c r="C229" s="1" t="s">
+      <c r="D231" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="D229" s="82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
+      <c r="B232" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="B230" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D230" s="70" t="s">
+      <c r="C232" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D232" s="70" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D231" s="34" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D232" s="34" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D233" s="76" t="s">
-        <v>35</v>
+        <v>618</v>
+      </c>
+      <c r="D233" s="34" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>411</v>
+        <v>617</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D234" s="37" t="s">
-        <v>413</v>
+        <v>618</v>
+      </c>
+      <c r="D234" s="34" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>414</v>
+        <v>285</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>414</v>
+        <v>619</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D235" s="38" t="s">
-        <v>416</v>
+        <v>620</v>
+      </c>
+      <c r="D235" s="76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="9" t="s">
-        <v>136</v>
+      <c r="A236" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D236" s="108" t="s">
-        <v>302</v>
+        <v>412</v>
+      </c>
+      <c r="D236" s="37" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>195</v>
+        <v>414</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D237" s="75" t="s">
-        <v>29</v>
+        <v>415</v>
+      </c>
+      <c r="D237" s="38" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
-        <v>642</v>
+      <c r="A238" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>642</v>
+        <v>136</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>20</v>
+        <v>136</v>
+      </c>
+      <c r="D238" s="108" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D239" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D239" s="146" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="D240" s="68" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="D241" s="125" t="s">
-        <v>522</v>
+      <c r="D241" s="146" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="D242" s="130" t="s">
-        <v>589</v>
+        <v>551</v>
+      </c>
+      <c r="D242" s="68" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D243" s="76" t="s">
-        <v>35</v>
+      <c r="A243" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D243" s="125" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D244" s="22" t="s">
-        <v>237</v>
+      <c r="A244" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D244" s="130" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>715</v>
+        <v>33</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>716</v>
+        <v>34</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D245" s="89" t="s">
-        <v>139</v>
+        <v>33</v>
+      </c>
+      <c r="D245" s="76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>138</v>
+        <v>626</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D246" s="89" t="s">
-        <v>139</v>
+        <v>627</v>
+      </c>
+      <c r="D246" s="22" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>138</v>
+        <v>714</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>138</v>
+        <v>715</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>137</v>
+        <v>714</v>
       </c>
       <c r="D247" s="89" t="s">
         <v>139</v>
@@ -7926,573 +7956,573 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>347</v>
+        <v>138</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D248" s="29" t="s">
-        <v>185</v>
+        <v>137</v>
+      </c>
+      <c r="D248" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D249" s="80" t="s">
-        <v>45</v>
+        <v>137</v>
+      </c>
+      <c r="D249" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D251" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D250" s="17" t="s">
+      <c r="D252" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="7" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B253" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B251" s="48" t="s">
-        <v>565</v>
-      </c>
-      <c r="C251" s="1" t="s">
+      <c r="D253" s="56" t="s">
         <v>525</v>
-      </c>
-      <c r="D251" s="56" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B252" s="48" t="s">
-        <v>528</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D252" s="57" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D253" s="39" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="D254" s="69" t="s">
+        <v>526</v>
+      </c>
+      <c r="B254" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D254" s="57" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D255" s="39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D256" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="6" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C255" s="6" t="s">
+      <c r="C257" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D255" s="80" t="s">
+      <c r="D257" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C258" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D256" s="80" t="s">
+      <c r="D258" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D257" s="13" t="s">
+      <c r="D259" s="13" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D258" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D259" s="77" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D260" s="40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D260" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>424</v>
+        <v>36</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D261" s="118" t="s">
-        <v>426</v>
+        <v>37</v>
+      </c>
+      <c r="D261" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>145</v>
+        <v>420</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D262" s="14" t="s">
-        <v>146</v>
+        <v>421</v>
+      </c>
+      <c r="D262" s="40" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D263" s="118" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D263" s="8" t="s">
+      <c r="D265" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>325</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="B266" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C266" t="s">
         <v>325</v>
       </c>
-      <c r="D264" s="8" t="s">
+      <c r="D266" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="6" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C267" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D265" s="80" t="s">
+      <c r="D267" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D266" s="82" t="s">
+      <c r="D268" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="7" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C269" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B267" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D267" s="77" t="s">
+      <c r="D269" s="77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C270" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D268" s="80" t="s">
+      <c r="D270" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="6" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C271" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D269" s="80" t="s">
+      <c r="D271" s="80" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D270" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D271" s="70" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>20</v>
+        <v>291</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D273" s="107" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="D273" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D274" s="108" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D275" s="24" t="s">
-        <v>305</v>
+        <v>298</v>
+      </c>
+      <c r="D275" s="107" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>887</v>
+        <v>300</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D276" s="109" t="s">
-        <v>307</v>
+        <v>301</v>
+      </c>
+      <c r="D276" s="108" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D277" s="13" t="s">
-        <v>135</v>
+        <v>304</v>
+      </c>
+      <c r="D277" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>308</v>
+        <v>886</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D278" s="110" t="s">
-        <v>62</v>
+        <v>887</v>
+      </c>
+      <c r="D278" s="109" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D279" s="110" t="s">
-        <v>62</v>
+        <v>155</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D280" s="18" t="s">
-        <v>226</v>
+        <v>309</v>
+      </c>
+      <c r="D280" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D281" s="111" t="s">
-        <v>314</v>
+        <v>309</v>
+      </c>
+      <c r="D281" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D282" s="145" t="s">
-        <v>646</v>
+        <v>311</v>
+      </c>
+      <c r="D282" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D283" s="75" t="s">
-        <v>29</v>
+        <v>313</v>
+      </c>
+      <c r="D283" s="111" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>196</v>
+        <v>427</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>196</v>
+        <v>427</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D284" s="126" t="s">
-        <v>579</v>
+        <v>428</v>
+      </c>
+      <c r="D284" s="145" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>734</v>
+        <v>315</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D285" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D285" s="126" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D286" s="80" t="s">
-        <v>45</v>
+      <c r="C286" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D286" s="126" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="s">
-        <v>159</v>
+      <c r="A287" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D287" s="80" t="s">
-        <v>45</v>
+        <v>196</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D287" s="126" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D288" s="80" t="s">
         <v>45</v>
@@ -8500,1133 +8530,1133 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D289" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D290" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C291" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D289" s="105" t="s">
+      <c r="D291" s="105" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D290" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D291" s="19" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>443</v>
+        <v>358</v>
       </c>
       <c r="D292" s="30" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="D293" s="58" t="s">
-        <v>45</v>
+      <c r="A293" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D293" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>319</v>
+        <v>442</v>
+      </c>
+      <c r="D294" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D295" s="79" t="s">
-        <v>44</v>
+      <c r="A295" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D295" s="58" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D296" s="137" t="s">
-        <v>603</v>
+        <v>318</v>
+      </c>
+      <c r="D296" s="25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D297" s="78" t="s">
-        <v>41</v>
+        <v>197</v>
+      </c>
+      <c r="D297" s="79" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D298" s="90" t="s">
-        <v>32</v>
+        <v>599</v>
+      </c>
+      <c r="D298" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D299" s="78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D300" s="90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D299" s="79" t="s">
+      <c r="D301" s="79" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>671</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C300" t="s">
-        <v>671</v>
-      </c>
-      <c r="D300" s="142" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>672</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C301" t="s">
-        <v>672</v>
-      </c>
-      <c r="D301" s="143" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C302" t="s">
-        <v>673</v>
-      </c>
-      <c r="D302" s="75" t="s">
-        <v>29</v>
+        <v>670</v>
+      </c>
+      <c r="D302" s="142" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C303" t="s">
-        <v>674</v>
-      </c>
-      <c r="D303" s="147" t="s">
-        <v>667</v>
+        <v>671</v>
+      </c>
+      <c r="D303" s="143" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>680</v>
-      </c>
-      <c r="B304" t="s">
-        <v>680</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D304" s="137" t="s">
-        <v>603</v>
+        <v>672</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C304" t="s">
+        <v>672</v>
+      </c>
+      <c r="D304" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>681</v>
-      </c>
-      <c r="B305" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D305" s="14" t="s">
-        <v>146</v>
+        <v>673</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C305" t="s">
+        <v>673</v>
+      </c>
+      <c r="D305" s="147" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>106</v>
+        <v>679</v>
       </c>
       <c r="B306" t="s">
-        <v>106</v>
+        <v>679</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D306" s="77" t="s">
-        <v>38</v>
+        <v>599</v>
+      </c>
+      <c r="D306" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>679</v>
-      </c>
-      <c r="B307" t="s">
-        <v>679</v>
+        <v>680</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D307" s="70" t="s">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="D307" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>682</v>
+        <v>106</v>
       </c>
       <c r="B308" t="s">
-        <v>682</v>
+        <v>106</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="D308" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B309" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D309" s="75" t="s">
-        <v>29</v>
+        <v>688</v>
+      </c>
+      <c r="D309" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B310" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D310" s="127" t="s">
-        <v>581</v>
+        <v>687</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B311" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D311" s="80" t="s">
-        <v>45</v>
+        <v>689</v>
+      </c>
+      <c r="D311" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B312" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D312" s="24" t="s">
-        <v>305</v>
+        <v>690</v>
+      </c>
+      <c r="D312" s="127" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B313" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D313" s="105" t="s">
-        <v>81</v>
+        <v>691</v>
+      </c>
+      <c r="D313" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B314" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D314" s="126" t="s">
-        <v>579</v>
+        <v>692</v>
+      </c>
+      <c r="D314" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>686</v>
+      </c>
+      <c r="B315" t="s">
+        <v>686</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D315" s="105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>694</v>
+      </c>
+      <c r="B316" t="s">
+        <v>694</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B315" t="s">
-        <v>696</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D315" s="39" t="s">
+      <c r="D316" s="126" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>695</v>
+      </c>
+      <c r="B317" t="s">
+        <v>695</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D317" s="39" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D316" s="57" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D317" s="70" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D318" s="75" t="s">
-        <v>29</v>
+        <v>698</v>
+      </c>
+      <c r="D318" s="57" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D319" s="71" t="s">
-        <v>9</v>
+        <v>699</v>
+      </c>
+      <c r="D319" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D320" s="137" t="s">
-        <v>603</v>
+        <v>723</v>
+      </c>
+      <c r="D320" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D321" s="70" t="s">
-        <v>6</v>
+        <v>724</v>
+      </c>
+      <c r="D321" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D322" s="57" t="s">
-        <v>530</v>
+        <v>725</v>
+      </c>
+      <c r="D322" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D323" s="106" t="s">
-        <v>286</v>
+        <v>730</v>
+      </c>
+      <c r="D323" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D324" s="24" t="s">
-        <v>305</v>
+        <v>731</v>
+      </c>
+      <c r="D324" s="57" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D325" s="79" t="s">
-        <v>44</v>
+        <v>728</v>
+      </c>
+      <c r="D325" s="106" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D326" s="57" t="s">
-        <v>530</v>
+        <v>729</v>
+      </c>
+      <c r="D326" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D327" s="71" t="s">
-        <v>9</v>
+        <v>197</v>
+      </c>
+      <c r="D327" s="79" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D328" s="57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D329" s="110" t="s">
-        <v>62</v>
+        <v>742</v>
+      </c>
+      <c r="D329" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D330" s="32" t="s">
-        <v>387</v>
+        <v>744</v>
+      </c>
+      <c r="D330" s="57" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D331" s="148" t="s">
-        <v>129</v>
+        <v>746</v>
+      </c>
+      <c r="D331" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D332" s="10" t="s">
-        <v>81</v>
+        <v>748</v>
+      </c>
+      <c r="D332" s="32" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>881</v>
+        <v>754</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="D333" s="102" t="s">
-        <v>261</v>
+        <v>751</v>
+      </c>
+      <c r="D333" s="148" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="149" t="s">
-        <v>259</v>
-      </c>
-      <c r="B334" s="149" t="s">
-        <v>882</v>
-      </c>
-      <c r="C334" s="149" t="s">
-        <v>260</v>
-      </c>
-      <c r="D334" s="137" t="s">
-        <v>603</v>
+      <c r="A334" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D334" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>758</v>
+        <v>880</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D335" s="71" t="s">
-        <v>9</v>
+        <v>756</v>
+      </c>
+      <c r="D335" s="102" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D336" s="86" t="s">
-        <v>88</v>
+      <c r="A336" s="149" t="s">
+        <v>259</v>
+      </c>
+      <c r="B336" s="149" t="s">
+        <v>881</v>
+      </c>
+      <c r="C336" s="149" t="s">
+        <v>260</v>
+      </c>
+      <c r="D336" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>883</v>
+        <v>757</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D337" s="81" t="s">
-        <v>25</v>
+        <v>758</v>
+      </c>
+      <c r="D337" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D338" s="80" t="s">
-        <v>45</v>
+        <v>759</v>
+      </c>
+      <c r="D338" s="86" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>765</v>
+        <v>882</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D339" s="105" t="s">
-        <v>81</v>
+        <v>761</v>
+      </c>
+      <c r="D339" s="81" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D340" s="32" t="s">
-        <v>387</v>
+        <v>766</v>
+      </c>
+      <c r="D340" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D341" s="79" t="s">
-        <v>44</v>
+        <v>765</v>
+      </c>
+      <c r="D341" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D342" s="126" t="s">
-        <v>579</v>
+        <v>768</v>
+      </c>
+      <c r="D342" s="32" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D343" s="110" t="s">
-        <v>62</v>
+        <v>772</v>
+      </c>
+      <c r="D343" s="79" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D344" s="25" t="s">
-        <v>319</v>
+        <v>775</v>
+      </c>
+      <c r="D344" s="126" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D345" s="13" t="s">
-        <v>135</v>
+        <v>778</v>
+      </c>
+      <c r="D345" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D346" s="112" t="s">
-        <v>186</v>
+        <v>779</v>
+      </c>
+      <c r="D346" s="25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D347" s="77" t="s">
-        <v>38</v>
+        <v>780</v>
+      </c>
+      <c r="D347" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D348" s="127" t="s">
-        <v>581</v>
+        <v>782</v>
+      </c>
+      <c r="D348" s="112" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>814</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D349" s="80" t="s">
-        <v>45</v>
+        <v>784</v>
+      </c>
+      <c r="D349" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D350" s="24" t="s">
-        <v>305</v>
+        <v>785</v>
+      </c>
+      <c r="D350" s="127" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D351" s="105" t="s">
-        <v>81</v>
+        <v>786</v>
+      </c>
+      <c r="D351" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D352" s="51" t="s">
-        <v>482</v>
+        <v>787</v>
+      </c>
+      <c r="D352" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D353" s="83" t="s">
-        <v>56</v>
+        <v>790</v>
+      </c>
+      <c r="D353" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D354" s="39" t="s">
-        <v>419</v>
+        <v>791</v>
+      </c>
+      <c r="D354" s="51" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D355" s="139" t="s">
-        <v>609</v>
+        <v>794</v>
+      </c>
+      <c r="D355" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D356" s="75" t="s">
-        <v>29</v>
+        <v>795</v>
+      </c>
+      <c r="D356" s="39" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D357" s="49" t="s">
-        <v>475</v>
+        <v>796</v>
+      </c>
+      <c r="D357" s="139" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D358" s="142" t="s">
-        <v>633</v>
+        <v>797</v>
+      </c>
+      <c r="D358" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D359" s="24" t="s">
-        <v>305</v>
+        <v>798</v>
+      </c>
+      <c r="D359" s="49" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D360" s="93" t="s">
-        <v>193</v>
+        <v>799</v>
+      </c>
+      <c r="D360" s="142" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D361" s="144" t="s">
-        <v>635</v>
+        <v>801</v>
+      </c>
+      <c r="D361" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D362" s="93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D363" s="144" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D364" s="110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>816</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D362" s="110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>817</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="C363" t="s">
-        <v>867</v>
-      </c>
-      <c r="D363" s="17" t="s">
+      <c r="B365" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C365" t="s">
+        <v>866</v>
+      </c>
+      <c r="D365" s="17" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
-        <v>818</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C364" t="s">
-        <v>868</v>
-      </c>
-      <c r="D364" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D365" s="137" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>872</v>
       </c>
       <c r="C366" t="s">
+        <v>867</v>
+      </c>
+      <c r="D366" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D367" s="137" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>819</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C368" t="s">
+        <v>868</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>820</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C369" t="s">
         <v>869</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>821</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="C367" t="s">
-        <v>870</v>
-      </c>
-      <c r="D367" s="82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D368" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="D369" s="82" t="s">
         <v>49</v>
@@ -9634,654 +9664,710 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D370" s="147" t="s">
-        <v>667</v>
+        <v>824</v>
+      </c>
+      <c r="D370" s="17" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D371" s="24" t="s">
-        <v>305</v>
+        <v>894</v>
+      </c>
+      <c r="D371" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D372" s="77" t="s">
-        <v>38</v>
+        <v>828</v>
+      </c>
+      <c r="D372" s="147" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D373" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D374" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="C375" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D375" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
         <v>835</v>
       </c>
-      <c r="C373" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D373" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>836</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C374" t="s">
-        <v>836</v>
-      </c>
-      <c r="D374" s="75" t="s">
+      <c r="B376" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C376" t="s">
+        <v>835</v>
+      </c>
+      <c r="D376" s="75" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>837</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C375" t="s">
-        <v>837</v>
-      </c>
-      <c r="D375" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D376" s="45" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="C377" t="s">
-        <v>839</v>
-      </c>
-      <c r="D377" s="80" t="s">
-        <v>45</v>
+        <v>836</v>
+      </c>
+      <c r="D377" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
-        <v>840</v>
+      <c r="A378" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C378" t="s">
-        <v>840</v>
-      </c>
-      <c r="D378" s="150" t="s">
-        <v>6</v>
+        <v>847</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D378" s="45" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="C379" t="s">
-        <v>841</v>
-      </c>
-      <c r="D379" s="124" t="s">
-        <v>571</v>
+        <v>838</v>
+      </c>
+      <c r="D379" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>850</v>
+        <v>888</v>
       </c>
       <c r="C380" t="s">
-        <v>851</v>
-      </c>
-      <c r="D380" s="20" t="s">
-        <v>237</v>
+        <v>839</v>
+      </c>
+      <c r="D380" s="150" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C381" t="s">
-        <v>843</v>
-      </c>
-      <c r="D381" s="105" t="s">
-        <v>81</v>
+        <v>840</v>
+      </c>
+      <c r="D381" s="124" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>894</v>
+        <v>841</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C382" t="s">
-        <v>894</v>
-      </c>
-      <c r="D382" s="92" t="s">
-        <v>185</v>
+        <v>850</v>
+      </c>
+      <c r="D382" s="20" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="C383" t="s">
-        <v>854</v>
-      </c>
-      <c r="D383" s="127" t="s">
-        <v>581</v>
+        <v>842</v>
+      </c>
+      <c r="D383" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>844</v>
+        <v>893</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C384" t="s">
-        <v>856</v>
-      </c>
-      <c r="D384" s="110" t="s">
-        <v>62</v>
+        <v>893</v>
+      </c>
+      <c r="D384" s="92" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>638</v>
+        <v>852</v>
       </c>
       <c r="C385" t="s">
-        <v>845</v>
-      </c>
-      <c r="D385" s="151" t="s">
-        <v>135</v>
+        <v>853</v>
+      </c>
+      <c r="D385" s="127" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C386" t="s">
-        <v>846</v>
-      </c>
-      <c r="D386" s="14" t="s">
-        <v>146</v>
+        <v>855</v>
+      </c>
+      <c r="D386" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>876</v>
+        <v>637</v>
       </c>
       <c r="C387" t="s">
-        <v>875</v>
-      </c>
-      <c r="D387" s="106" t="s">
-        <v>286</v>
+        <v>844</v>
+      </c>
+      <c r="D387" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D388" s="140" t="s">
-        <v>860</v>
+        <v>856</v>
+      </c>
+      <c r="C388" t="s">
+        <v>845</v>
+      </c>
+      <c r="D388" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>886</v>
+        <v>858</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C389" t="s">
+        <v>874</v>
+      </c>
+      <c r="D389" s="106" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>862</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D390" s="140" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
         <v>885</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D389" s="127" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A390" s="1" t="s">
+      <c r="C391" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D391" s="127" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D390" s="110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A391" s="152" t="s">
-        <v>899</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C391" s="152" t="s">
-        <v>899</v>
-      </c>
-      <c r="D391" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="152" t="s">
-        <v>900</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="C392" s="152" t="s">
-        <v>900</v>
+      <c r="C392" s="1" t="s">
+        <v>896</v>
       </c>
       <c r="D392" s="110" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="1" t="s">
-        <v>901</v>
+      <c r="A393" s="152" t="s">
+        <v>898</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D393" s="80" t="s">
-        <v>45</v>
+        <v>902</v>
+      </c>
+      <c r="C393" s="152" t="s">
+        <v>898</v>
+      </c>
+      <c r="D393" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="1" t="s">
-        <v>902</v>
+      <c r="A394" s="152" t="s">
+        <v>899</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D394" s="82" t="s">
-        <v>49</v>
+        <v>903</v>
+      </c>
+      <c r="C394" s="152" t="s">
+        <v>899</v>
+      </c>
+      <c r="D394" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D395" s="49" t="s">
-        <v>475</v>
+        <v>900</v>
+      </c>
+      <c r="D395" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D396" s="142" t="s">
-        <v>633</v>
+        <v>901</v>
+      </c>
+      <c r="D396" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D397" s="80" t="s">
-        <v>45</v>
+        <v>906</v>
+      </c>
+      <c r="D397" s="49" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>923</v>
+        <v>907</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D398" s="89" t="s">
-        <v>139</v>
+        <v>907</v>
+      </c>
+      <c r="D398" s="142" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>924</v>
+        <v>908</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D399" s="45" t="s">
-        <v>463</v>
+        <v>908</v>
+      </c>
+      <c r="D399" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D400" s="77" t="s">
-        <v>38</v>
+        <v>909</v>
+      </c>
+      <c r="D400" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D401" s="151" t="s">
-        <v>135</v>
+        <v>910</v>
+      </c>
+      <c r="D401" s="45" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D402" s="75" t="s">
-        <v>29</v>
+        <v>911</v>
+      </c>
+      <c r="D402" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D403" s="80" t="s">
-        <v>45</v>
+        <v>912</v>
+      </c>
+      <c r="D403" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D404" s="83" t="s">
-        <v>56</v>
+        <v>913</v>
+      </c>
+      <c r="D404" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D405" s="82" t="s">
-        <v>49</v>
+        <v>914</v>
+      </c>
+      <c r="D405" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D406" s="24" t="s">
-        <v>305</v>
+        <v>915</v>
+      </c>
+      <c r="D406" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="D407" s="92" t="s">
-        <v>185</v>
+        <v>916</v>
+      </c>
+      <c r="D407" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D408" s="77" t="s">
-        <v>38</v>
+        <v>917</v>
+      </c>
+      <c r="D408" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D409" s="82" t="s">
-        <v>49</v>
+        <v>918</v>
+      </c>
+      <c r="D409" s="92" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="D410" s="75" t="s">
-        <v>29</v>
+        <v>924</v>
+      </c>
+      <c r="D410" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D411" s="83" t="s">
-        <v>56</v>
+        <v>925</v>
+      </c>
+      <c r="D411" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D412" s="24" t="s">
-        <v>305</v>
+        <v>926</v>
+      </c>
+      <c r="D412" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D413" s="77" t="s">
-        <v>38</v>
+        <v>927</v>
+      </c>
+      <c r="D413" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="D414" s="82" t="s">
-        <v>49</v>
+        <v>928</v>
+      </c>
+      <c r="D414" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D415" s="75" t="s">
-        <v>29</v>
+        <v>929</v>
+      </c>
+      <c r="D415" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="D416" s="83" t="s">
-        <v>56</v>
+        <v>930</v>
+      </c>
+      <c r="D416" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D417" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="D417" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D418" s="83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D419" s="24" t="s">
         <v>305</v>
       </c>
     </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D420" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D421" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D303" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D299">
-      <sortCondition ref="A1:A298"/>
+  <autoFilter ref="A1:D305" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D301">
+      <sortCondition ref="A1:A300"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A125:A189">
-    <sortCondition ref="A125:A189"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:A191">
+    <sortCondition ref="A127:A191"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Projet avec NZA/Report/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14963F11-C9D1-C849-A835-279D0D8C7F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034238F6-16BC-1D46-B6C6-05F00C9B7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'liste référence'!$A$1:$D$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'liste référence'!$A$1:$D$307</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="950">
   <si>
     <t>variable</t>
   </si>
@@ -2841,15 +2841,6 @@
     <t>HE-HP-EBREP-HYB</t>
   </si>
   <si>
-    <t>Biomasse + CCS</t>
-  </si>
-  <si>
-    <t>Biomasse + CSC</t>
-  </si>
-  <si>
-    <t>Biomass + CCS</t>
-  </si>
-  <si>
     <t>Gaz naturel (CCS)</t>
   </si>
   <si>
@@ -2872,6 +2863,30 @@
   </si>
   <si>
     <t>Storage (4h)</t>
+  </si>
+  <si>
+    <t>Bioénergie (CCS)</t>
+  </si>
+  <si>
+    <t>Bioenergy (CCS)</t>
+  </si>
+  <si>
+    <t>Éolien sur terre</t>
+  </si>
+  <si>
+    <t>Wind (onshore)</t>
+  </si>
+  <si>
+    <t>Éolien en mer</t>
+  </si>
+  <si>
+    <t>Wind (offshore)</t>
+  </si>
+  <si>
+    <t>Éolien (sur terre)</t>
+  </si>
+  <si>
+    <t>Éolien (en mer)</t>
   </si>
 </sst>
 </file>
@@ -4486,11 +4501,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D422" sqref="D422"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5774,13 +5789,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>223</v>
@@ -5788,13 +5803,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D93" s="138" t="s">
         <v>603</v>
@@ -5942,335 +5957,335 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>249</v>
+        <v>944</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>249</v>
+        <v>948</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D104" s="100" t="s">
-        <v>251</v>
+        <v>945</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>74</v>
+      <c r="A105" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="80" t="s">
-        <v>45</v>
+        <v>949</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D105" s="49" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="D106" s="100" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>373</v>
+      <c r="A107" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>135</v>
+        <v>75</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>223</v>
+        <v>669</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D111" s="19" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D110" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>656</v>
-      </c>
-      <c r="B111" t="s">
-        <v>656</v>
-      </c>
-      <c r="C111" t="s">
-        <v>657</v>
-      </c>
-      <c r="D111" s="98" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D112" s="80" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>601</v>
+      <c r="A113" t="s">
+        <v>656</v>
+      </c>
+      <c r="B113" t="s">
+        <v>656</v>
+      </c>
+      <c r="C113" t="s">
+        <v>657</v>
+      </c>
+      <c r="D113" s="98" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>79</v>
+      <c r="A114" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>328</v>
+        <v>597</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>328</v>
+        <v>598</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D115" s="93" t="s">
-        <v>193</v>
+        <v>597</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>20</v>
+        <v>329</v>
+      </c>
+      <c r="D117" s="93" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>433</v>
+        <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>623</v>
+        <v>11</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>435</v>
+        <v>19</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>624</v>
+        <v>19</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D119" s="119" t="s">
-        <v>437</v>
+        <v>18</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>252</v>
+        <v>433</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>864</v>
+        <v>623</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>20</v>
+        <v>434</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>330</v>
+        <v>624</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D121" s="141" t="s">
-        <v>611</v>
+        <v>436</v>
+      </c>
+      <c r="D121" s="119" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>479</v>
+      <c r="A122" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D122" s="51" t="s">
-        <v>481</v>
+        <v>865</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D123" s="141" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D123" s="77" t="s">
+      <c r="D125" s="77" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D124" s="101" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D125" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D126" s="92" t="s">
-        <v>185</v>
+        <v>256</v>
+      </c>
+      <c r="D126" s="101" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D127" s="80" t="s">
         <v>45</v>
@@ -6278,431 +6293,431 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D128" s="86" t="s">
-        <v>88</v>
+        <v>379</v>
+      </c>
+      <c r="D128" s="92" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>89</v>
+      <c r="A129" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D129" s="72" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="72" t="s">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="D130" s="86" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D131" s="116" t="s">
-        <v>382</v>
+        <v>89</v>
+      </c>
+      <c r="D131" s="72" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
-        <v>91</v>
+      <c r="A132" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="80" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="72" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D133" s="71" t="s">
-        <v>9</v>
+        <v>381</v>
+      </c>
+      <c r="D133" s="116" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>651</v>
+      <c r="A134" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D134" s="71" t="s">
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D135" s="102" t="s">
-        <v>261</v>
+        <v>654</v>
+      </c>
+      <c r="D135" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D136" s="102" t="s">
-        <v>261</v>
+        <v>653</v>
+      </c>
+      <c r="D136" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D137" s="128" t="s">
-        <v>579</v>
+        <v>260</v>
+      </c>
+      <c r="D137" s="102" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" s="73" t="s">
-        <v>17</v>
+        <v>655</v>
+      </c>
+      <c r="D138" s="102" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D139" s="73" t="s">
-        <v>17</v>
+        <v>263</v>
+      </c>
+      <c r="D139" s="128" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D140" s="103" t="s">
-        <v>268</v>
+        <v>16</v>
+      </c>
+      <c r="D140" s="73" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>438</v>
+        <v>264</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>568</v>
+        <v>264</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>240</v>
+        <v>265</v>
+      </c>
+      <c r="D141" s="73" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>878</v>
+        <v>266</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D142" s="28" t="s">
-        <v>32</v>
+        <v>267</v>
+      </c>
+      <c r="D142" s="103" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>93</v>
+        <v>438</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>94</v>
+        <v>568</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D143" s="80" t="s">
-        <v>45</v>
+        <v>439</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>188</v>
+        <v>878</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D144" s="80" t="s">
-        <v>45</v>
+        <v>879</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D145" s="76" t="s">
-        <v>35</v>
+        <v>93</v>
+      </c>
+      <c r="D145" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D146" s="76"/>
+        <v>187</v>
+      </c>
+      <c r="D146" s="80" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>385</v>
+        <v>269</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>62</v>
+        <v>270</v>
+      </c>
+      <c r="D147" s="76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>890</v>
+        <v>269</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D148" s="32" t="s">
-        <v>387</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="D148" s="76"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>663</v>
+        <v>385</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>12</v>
+        <v>892</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>664</v>
+        <v>890</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D150" s="82" t="s">
-        <v>49</v>
+        <v>891</v>
+      </c>
+      <c r="D150" s="32" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>292</v>
+        <v>662</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D152" s="142" t="s">
-        <v>632</v>
+        <v>665</v>
+      </c>
+      <c r="D152" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="D153" s="80" t="s">
-        <v>45</v>
+      <c r="A153" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D154" s="142" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D155" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D154" s="20" t="s">
+      <c r="D156" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D155" s="16" t="s">
+      <c r="D157" s="16" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D156" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D157" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D158" s="80" t="s">
         <v>45</v>
@@ -6710,447 +6725,447 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D159" s="80" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D160" s="88" t="s">
+      <c r="D162" s="88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="D161" s="121" t="s">
+      <c r="D163" s="121" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D162" s="80" t="s">
+      <c r="D164" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D163" s="77" t="s">
+      <c r="D165" s="77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D164" s="122" t="s">
+      <c r="D166" s="122" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D165" s="80" t="s">
+      <c r="D167" s="80" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D166" s="112" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D167" s="78" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D168" s="89" t="s">
-        <v>139</v>
+        <v>333</v>
+      </c>
+      <c r="D168" s="112" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D169" s="93" t="s">
-        <v>193</v>
+        <v>750</v>
+      </c>
+      <c r="D169" s="78" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="D170" s="61" t="s">
-        <v>539</v>
+      <c r="A170" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D170" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D171" s="104" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="D171" s="93" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D172" s="80" t="s">
-        <v>45</v>
+      <c r="A172" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D172" s="61" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D173" s="104" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D174" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D173" s="70" t="s">
+      <c r="D175" s="70" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D174" s="95" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D175" s="87" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D176" s="95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D177" s="87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B179" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="D177" s="62" t="s">
+      <c r="D179" s="62" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="D178" s="63" t="s">
+      <c r="D180" s="63" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D179" s="80" t="s">
+      <c r="D181" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D180" s="80" t="s">
+      <c r="D182" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B183" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C183" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="D181" s="64" t="s">
+      <c r="D183" s="64" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D182" s="88" t="s">
+      <c r="D184" s="88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D183" s="80" t="s">
+      <c r="D185" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C186" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="D184" s="65" t="s">
+      <c r="D186" s="65" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D185" s="105" t="s">
+      <c r="D187" s="105" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D186" s="105" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="D187" s="134" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>584</v>
+        <v>280</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>586</v>
+        <v>279</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>536</v>
+        <v>280</v>
+      </c>
+      <c r="D188" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="D189" s="133" t="s">
-        <v>591</v>
+        <v>584</v>
+      </c>
+      <c r="D189" s="134" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>536</v>
@@ -7158,111 +7173,111 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="D191" s="132" t="s">
-        <v>590</v>
+        <v>491</v>
+      </c>
+      <c r="D191" s="133" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>25</v>
+      <c r="A193" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D193" s="132" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D194" s="93" t="s">
+      <c r="D196" s="93" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D195" s="33" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="D196" s="66" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>22</v>
+        <v>396</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>23</v>
+      <c r="A198" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="D198" s="66" t="s">
         <v>548</v>
@@ -7270,713 +7285,713 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" s="66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="D201" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B202" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C202" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D200" s="104" t="s">
+      <c r="D202" s="104" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B203" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D201" s="98" t="s">
+      <c r="D203" s="98" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D203" s="12" t="s">
+      <c r="D205" s="12" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="D204" s="52" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="D205" s="53" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D206" s="54" t="s">
-        <v>505</v>
+        <v>498</v>
+      </c>
+      <c r="D206" s="52" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="D207" s="55" t="s">
-        <v>509</v>
+        <v>501</v>
+      </c>
+      <c r="D207" s="53" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D208" s="67" t="s">
-        <v>550</v>
+        <v>504</v>
+      </c>
+      <c r="D208" s="54" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B209" s="48" t="s">
-        <v>562</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D209" s="123" t="s">
-        <v>569</v>
+        <v>506</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D209" s="55" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D210" s="67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B211" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D211" s="123" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B212" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D210" s="124" t="s">
+      <c r="D212" s="124" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D211" s="117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D212" s="71" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D213" s="117" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D213" s="28" t="s">
+      <c r="D215" s="28" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D214" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D215" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D216" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D217" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C218" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="D216" s="74" t="s">
+      <c r="D218" s="74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D217" s="75" t="s">
+      <c r="D219" s="75" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D218" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D219" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>340</v>
+        <v>30</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D220" s="140" t="s">
-        <v>859</v>
+        <v>30</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
-        <v>342</v>
+      <c r="A221" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D221" s="27" t="s">
-        <v>344</v>
+        <v>134</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D222" s="28" t="s">
-        <v>32</v>
+        <v>341</v>
+      </c>
+      <c r="D222" s="140" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D223" s="113" t="s">
-        <v>29</v>
+        <v>343</v>
+      </c>
+      <c r="D223" s="27" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D224" s="93" t="s">
-        <v>193</v>
+        <v>346</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>606</v>
+        <v>336</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D225" s="144" t="s">
-        <v>634</v>
+        <v>337</v>
+      </c>
+      <c r="D225" s="113" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>607</v>
+        <v>401</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D226" s="143" t="s">
-        <v>633</v>
+        <v>621</v>
+      </c>
+      <c r="D226" s="93" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>338</v>
+        <v>606</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D227" s="114" t="s">
-        <v>17</v>
+        <v>604</v>
+      </c>
+      <c r="D227" s="144" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>338</v>
+        <v>607</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D228" s="114" t="s">
-        <v>17</v>
+        <v>605</v>
+      </c>
+      <c r="D228" s="143" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D229" s="35" t="s">
-        <v>407</v>
+        <v>339</v>
+      </c>
+      <c r="D229" s="114" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D230" s="114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D231" s="35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D230" s="36" t="s">
+      <c r="D232" s="36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B231" s="48" t="s">
+      <c r="B233" s="48" t="s">
         <v>563</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D231" s="82" t="s">
+      <c r="D233" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B232" s="48" t="s">
+      <c r="B234" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D232" s="70" t="s">
+      <c r="D234" s="70" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D233" s="34" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D234" s="34" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D235" s="76" t="s">
-        <v>35</v>
+        <v>618</v>
+      </c>
+      <c r="D235" s="34" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>411</v>
+        <v>617</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D236" s="37" t="s">
-        <v>413</v>
+        <v>618</v>
+      </c>
+      <c r="D236" s="34" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>414</v>
+        <v>285</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>414</v>
+        <v>619</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D237" s="38" t="s">
-        <v>416</v>
+        <v>620</v>
+      </c>
+      <c r="D237" s="76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="9" t="s">
-        <v>136</v>
+      <c r="A238" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D238" s="108" t="s">
-        <v>302</v>
+        <v>412</v>
+      </c>
+      <c r="D238" s="37" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>195</v>
+        <v>414</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D239" s="75" t="s">
-        <v>29</v>
+        <v>415</v>
+      </c>
+      <c r="D239" s="38" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>641</v>
+      <c r="A240" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>641</v>
+        <v>136</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>20</v>
+        <v>136</v>
+      </c>
+      <c r="D240" s="108" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D241" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D241" s="146" t="s">
+      <c r="D243" s="146" t="s">
         <v>646</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="D242" s="68" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D243" s="125" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D244" s="68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D245" s="125" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B246" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C246" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="D244" s="130" t="s">
+      <c r="D246" s="130" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D245" s="76" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D246" s="22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>714</v>
+        <v>33</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>715</v>
+        <v>34</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D247" s="89" t="s">
-        <v>139</v>
+        <v>33</v>
+      </c>
+      <c r="D247" s="76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>138</v>
+        <v>626</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D248" s="89" t="s">
-        <v>139</v>
+        <v>627</v>
+      </c>
+      <c r="D248" s="22" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>138</v>
+        <v>714</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>138</v>
+        <v>715</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>137</v>
+        <v>714</v>
       </c>
       <c r="D249" s="89" t="s">
         <v>139</v>
@@ -7984,573 +7999,573 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>347</v>
+        <v>138</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D250" s="29" t="s">
-        <v>185</v>
+        <v>137</v>
+      </c>
+      <c r="D250" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D251" s="80" t="s">
-        <v>45</v>
+        <v>137</v>
+      </c>
+      <c r="D251" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D252" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D253" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D252" s="17" t="s">
+      <c r="D254" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="7" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B253" s="48" t="s">
+      <c r="B255" s="48" t="s">
         <v>564</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D253" s="56" t="s">
+      <c r="D255" s="56" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B254" s="48" t="s">
-        <v>527</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D254" s="57" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D255" s="39" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B256" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D256" s="57" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D257" s="39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B258" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C258" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D256" s="69" t="s">
+      <c r="D258" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="6" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C259" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D257" s="80" t="s">
+      <c r="D259" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="6" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C260" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D258" s="80" t="s">
+      <c r="D260" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C261" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D259" s="13" t="s">
+      <c r="D261" s="13" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D260" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D261" s="77" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>420</v>
+        <v>36</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D262" s="40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D262" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>424</v>
+        <v>36</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D263" s="118" t="s">
-        <v>426</v>
+        <v>37</v>
+      </c>
+      <c r="D263" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>145</v>
+        <v>420</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>146</v>
+        <v>421</v>
+      </c>
+      <c r="D264" s="40" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D265" s="118" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D266" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D265" s="8" t="s">
+      <c r="D267" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>325</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C268" t="s">
         <v>325</v>
       </c>
-      <c r="D266" s="8" t="s">
+      <c r="D268" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="6" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C269" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D267" s="80" t="s">
+      <c r="D269" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D268" s="82" t="s">
+      <c r="D270" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="7" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B271" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C271" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="D269" s="77" t="s">
+      <c r="D271" s="77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="6" t="s">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C270" s="6" t="s">
+      <c r="C272" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D270" s="80" t="s">
+      <c r="D272" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="6" t="s">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C273" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D271" s="80" t="s">
+      <c r="D273" s="80" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D272" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D273" s="70" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>20</v>
+        <v>291</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D275" s="107" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="D275" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D276" s="108" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D277" s="24" t="s">
-        <v>305</v>
+        <v>298</v>
+      </c>
+      <c r="D277" s="107" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>886</v>
+        <v>300</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="D278" s="109" t="s">
-        <v>307</v>
+        <v>301</v>
+      </c>
+      <c r="D278" s="108" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D279" s="13" t="s">
-        <v>135</v>
+        <v>304</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>308</v>
+        <v>886</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D280" s="110" t="s">
-        <v>62</v>
+        <v>887</v>
+      </c>
+      <c r="D280" s="109" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D281" s="110" t="s">
-        <v>62</v>
+        <v>155</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>226</v>
+        <v>309</v>
+      </c>
+      <c r="D282" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D283" s="111" t="s">
-        <v>314</v>
+        <v>309</v>
+      </c>
+      <c r="D283" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D284" s="145" t="s">
-        <v>645</v>
+        <v>311</v>
+      </c>
+      <c r="D284" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D285" s="75" t="s">
-        <v>29</v>
+        <v>313</v>
+      </c>
+      <c r="D285" s="111" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>196</v>
+        <v>427</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>196</v>
+        <v>427</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D286" s="126" t="s">
-        <v>578</v>
+        <v>428</v>
+      </c>
+      <c r="D286" s="145" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D287" s="75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D288" s="126" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D287" s="126" t="s">
+      <c r="D289" s="126" t="s">
         <v>578</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D288" s="80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D289" s="80" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D290" s="80" t="s">
         <v>45</v>
@@ -8558,559 +8573,559 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D291" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D292" s="80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B293" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C293" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D291" s="105" t="s">
+      <c r="D293" s="105" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D292" s="30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D293" s="19" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="D294" s="30" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D295" s="58" t="s">
-        <v>45</v>
+      <c r="A295" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D295" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D296" s="25" t="s">
-        <v>319</v>
+        <v>442</v>
+      </c>
+      <c r="D296" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D297" s="79" t="s">
-        <v>44</v>
+      <c r="A297" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D297" s="58" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D298" s="137" t="s">
-        <v>602</v>
+        <v>318</v>
+      </c>
+      <c r="D298" s="25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D299" s="78" t="s">
-        <v>41</v>
+        <v>197</v>
+      </c>
+      <c r="D299" s="79" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D300" s="90" t="s">
-        <v>32</v>
+        <v>599</v>
+      </c>
+      <c r="D300" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D301" s="78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D302" s="90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D301" s="79" t="s">
+      <c r="D303" s="79" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>670</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C302" t="s">
-        <v>670</v>
-      </c>
-      <c r="D302" s="142" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>671</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C303" t="s">
-        <v>671</v>
-      </c>
-      <c r="D303" s="143" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C304" t="s">
-        <v>672</v>
-      </c>
-      <c r="D304" s="75" t="s">
-        <v>29</v>
+        <v>670</v>
+      </c>
+      <c r="D304" s="142" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C305" t="s">
-        <v>673</v>
-      </c>
-      <c r="D305" s="147" t="s">
-        <v>666</v>
+        <v>671</v>
+      </c>
+      <c r="D305" s="143" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>679</v>
-      </c>
-      <c r="B306" t="s">
-        <v>679</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D306" s="137" t="s">
-        <v>602</v>
+        <v>672</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C306" t="s">
+        <v>672</v>
+      </c>
+      <c r="D306" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>680</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D307" s="14" t="s">
-        <v>146</v>
+        <v>673</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C307" t="s">
+        <v>673</v>
+      </c>
+      <c r="D307" s="147" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>106</v>
+        <v>679</v>
       </c>
       <c r="B308" t="s">
-        <v>106</v>
+        <v>679</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D308" s="77" t="s">
-        <v>38</v>
+        <v>599</v>
+      </c>
+      <c r="D308" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>678</v>
-      </c>
-      <c r="B309" t="s">
-        <v>678</v>
+        <v>680</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D309" s="70" t="s">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="D309" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>681</v>
+        <v>106</v>
       </c>
       <c r="B310" t="s">
-        <v>681</v>
+        <v>106</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="D310" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B311" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D311" s="75" t="s">
-        <v>29</v>
+        <v>688</v>
+      </c>
+      <c r="D311" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B312" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D312" s="127" t="s">
-        <v>580</v>
+        <v>687</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B313" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D313" s="80" t="s">
-        <v>45</v>
+        <v>689</v>
+      </c>
+      <c r="D313" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B314" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D314" s="24" t="s">
-        <v>305</v>
+        <v>690</v>
+      </c>
+      <c r="D314" s="127" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B315" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D315" s="105" t="s">
-        <v>81</v>
+        <v>691</v>
+      </c>
+      <c r="D315" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D316" s="126" t="s">
-        <v>578</v>
+        <v>692</v>
+      </c>
+      <c r="D316" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>686</v>
+      </c>
+      <c r="B317" t="s">
+        <v>686</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D317" s="105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>694</v>
+      </c>
+      <c r="B318" t="s">
+        <v>694</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D318" s="126" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>695</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B319" t="s">
         <v>695</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D317" s="39" t="s">
+      <c r="D319" s="39" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D318" s="57" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D319" s="70" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D320" s="75" t="s">
-        <v>29</v>
+        <v>698</v>
+      </c>
+      <c r="D320" s="57" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D321" s="71" t="s">
-        <v>9</v>
+        <v>699</v>
+      </c>
+      <c r="D321" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D322" s="137" t="s">
-        <v>602</v>
+        <v>723</v>
+      </c>
+      <c r="D322" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D323" s="70" t="s">
-        <v>6</v>
+        <v>724</v>
+      </c>
+      <c r="D323" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D324" s="57" t="s">
-        <v>529</v>
+        <v>725</v>
+      </c>
+      <c r="D324" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D325" s="106" t="s">
-        <v>286</v>
+        <v>730</v>
+      </c>
+      <c r="D325" s="70" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="D326" s="24" t="s">
-        <v>305</v>
+        <v>731</v>
+      </c>
+      <c r="D326" s="57" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D327" s="79" t="s">
-        <v>44</v>
+        <v>728</v>
+      </c>
+      <c r="D327" s="106" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D328" s="57" t="s">
-        <v>529</v>
+        <v>729</v>
+      </c>
+      <c r="D328" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D329" s="71" t="s">
-        <v>9</v>
+        <v>197</v>
+      </c>
+      <c r="D329" s="79" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D330" s="57" t="s">
         <v>529</v>
@@ -9118,573 +9133,573 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D331" s="110" t="s">
-        <v>62</v>
+        <v>742</v>
+      </c>
+      <c r="D331" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D332" s="32" t="s">
-        <v>387</v>
+        <v>744</v>
+      </c>
+      <c r="D332" s="57" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D333" s="148" t="s">
-        <v>129</v>
+        <v>746</v>
+      </c>
+      <c r="D333" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D334" s="10" t="s">
-        <v>81</v>
+        <v>748</v>
+      </c>
+      <c r="D334" s="32" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>880</v>
+        <v>754</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D335" s="102" t="s">
-        <v>261</v>
+        <v>751</v>
+      </c>
+      <c r="D335" s="148" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="149" t="s">
-        <v>259</v>
-      </c>
-      <c r="B336" s="149" t="s">
-        <v>881</v>
-      </c>
-      <c r="C336" s="149" t="s">
-        <v>260</v>
-      </c>
-      <c r="D336" s="137" t="s">
-        <v>602</v>
+      <c r="A336" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>757</v>
+        <v>880</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D337" s="71" t="s">
-        <v>9</v>
+        <v>756</v>
+      </c>
+      <c r="D337" s="102" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D338" s="86" t="s">
-        <v>88</v>
+      <c r="A338" s="149" t="s">
+        <v>259</v>
+      </c>
+      <c r="B338" s="149" t="s">
+        <v>881</v>
+      </c>
+      <c r="C338" s="149" t="s">
+        <v>260</v>
+      </c>
+      <c r="D338" s="137" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>882</v>
+        <v>757</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D339" s="81" t="s">
-        <v>25</v>
+        <v>758</v>
+      </c>
+      <c r="D339" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D340" s="80" t="s">
-        <v>45</v>
+        <v>759</v>
+      </c>
+      <c r="D340" s="86" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>764</v>
+        <v>882</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D341" s="105" t="s">
-        <v>81</v>
+        <v>761</v>
+      </c>
+      <c r="D341" s="81" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D342" s="32" t="s">
-        <v>387</v>
+        <v>766</v>
+      </c>
+      <c r="D342" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D343" s="79" t="s">
-        <v>44</v>
+        <v>765</v>
+      </c>
+      <c r="D343" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D344" s="126" t="s">
-        <v>578</v>
+        <v>768</v>
+      </c>
+      <c r="D344" s="32" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D345" s="110" t="s">
-        <v>62</v>
+        <v>772</v>
+      </c>
+      <c r="D345" s="79" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D346" s="25" t="s">
-        <v>319</v>
+        <v>775</v>
+      </c>
+      <c r="D346" s="126" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D347" s="13" t="s">
-        <v>135</v>
+        <v>778</v>
+      </c>
+      <c r="D347" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D348" s="112" t="s">
-        <v>186</v>
+        <v>779</v>
+      </c>
+      <c r="D348" s="25" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D349" s="77" t="s">
-        <v>38</v>
+        <v>780</v>
+      </c>
+      <c r="D349" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D350" s="127" t="s">
-        <v>580</v>
+        <v>782</v>
+      </c>
+      <c r="D350" s="112" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D351" s="80" t="s">
-        <v>45</v>
+        <v>784</v>
+      </c>
+      <c r="D351" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D352" s="24" t="s">
-        <v>305</v>
+        <v>785</v>
+      </c>
+      <c r="D352" s="127" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D353" s="105" t="s">
-        <v>81</v>
+        <v>786</v>
+      </c>
+      <c r="D353" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D354" s="51" t="s">
-        <v>481</v>
+        <v>787</v>
+      </c>
+      <c r="D354" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D355" s="83" t="s">
-        <v>56</v>
+        <v>790</v>
+      </c>
+      <c r="D355" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D356" s="39" t="s">
-        <v>419</v>
+        <v>791</v>
+      </c>
+      <c r="D356" s="51" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D357" s="139" t="s">
-        <v>608</v>
+        <v>794</v>
+      </c>
+      <c r="D357" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D358" s="75" t="s">
-        <v>29</v>
+        <v>795</v>
+      </c>
+      <c r="D358" s="39" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D359" s="49" t="s">
-        <v>474</v>
+        <v>796</v>
+      </c>
+      <c r="D359" s="139" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D360" s="142" t="s">
-        <v>632</v>
+        <v>797</v>
+      </c>
+      <c r="D360" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D361" s="24" t="s">
-        <v>305</v>
+        <v>798</v>
+      </c>
+      <c r="D361" s="49" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="D362" s="93" t="s">
-        <v>193</v>
+        <v>799</v>
+      </c>
+      <c r="D362" s="142" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D363" s="144" t="s">
-        <v>634</v>
+        <v>801</v>
+      </c>
+      <c r="D363" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D364" s="93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D365" s="144" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D364" s="110" t="s">
+      <c r="D366" s="110" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>816</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C367" t="s">
         <v>866</v>
       </c>
-      <c r="D365" s="17" t="s">
+      <c r="D367" s="17" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>817</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="C366" t="s">
-        <v>867</v>
-      </c>
-      <c r="D366" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D367" s="137" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>817</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C368" t="s">
+        <v>867</v>
+      </c>
+      <c r="D368" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D369" s="137" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
         <v>819</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C370" t="s">
         <v>868</v>
       </c>
-      <c r="D368" s="2" t="s">
+      <c r="D370" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
         <v>820</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C371" t="s">
         <v>869</v>
-      </c>
-      <c r="D369" s="82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D370" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="D371" s="82" t="s">
         <v>49</v>
@@ -9692,682 +9707,710 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D372" s="147" t="s">
-        <v>666</v>
+        <v>824</v>
+      </c>
+      <c r="D372" s="17" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D373" s="24" t="s">
-        <v>305</v>
+        <v>894</v>
+      </c>
+      <c r="D373" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D374" s="77" t="s">
-        <v>38</v>
+        <v>828</v>
+      </c>
+      <c r="D374" s="147" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D375" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D376" s="77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B377" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="C377" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D375" s="80" t="s">
+      <c r="D377" s="80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>835</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C378" t="s">
         <v>835</v>
       </c>
-      <c r="D376" s="75" t="s">
+      <c r="D378" s="75" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>836</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C377" t="s">
-        <v>836</v>
-      </c>
-      <c r="D377" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D378" s="45" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="C379" t="s">
-        <v>838</v>
-      </c>
-      <c r="D379" s="80" t="s">
-        <v>45</v>
+        <v>836</v>
+      </c>
+      <c r="D379" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
-        <v>839</v>
+      <c r="A380" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C380" t="s">
-        <v>839</v>
-      </c>
-      <c r="D380" s="150" t="s">
-        <v>6</v>
+        <v>847</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D380" s="45" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="C381" t="s">
-        <v>840</v>
-      </c>
-      <c r="D381" s="124" t="s">
-        <v>570</v>
+        <v>838</v>
+      </c>
+      <c r="D381" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="C382" t="s">
-        <v>850</v>
-      </c>
-      <c r="D382" s="20" t="s">
-        <v>237</v>
+        <v>839</v>
+      </c>
+      <c r="D382" s="150" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C383" t="s">
-        <v>842</v>
-      </c>
-      <c r="D383" s="105" t="s">
-        <v>81</v>
+        <v>840</v>
+      </c>
+      <c r="D383" s="124" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>893</v>
+        <v>841</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C384" t="s">
-        <v>893</v>
-      </c>
-      <c r="D384" s="92" t="s">
-        <v>185</v>
+        <v>850</v>
+      </c>
+      <c r="D384" s="20" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C385" t="s">
-        <v>853</v>
-      </c>
-      <c r="D385" s="127" t="s">
-        <v>580</v>
+        <v>842</v>
+      </c>
+      <c r="D385" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>843</v>
+        <v>893</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C386" t="s">
-        <v>855</v>
-      </c>
-      <c r="D386" s="110" t="s">
-        <v>62</v>
+        <v>893</v>
+      </c>
+      <c r="D386" s="92" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>637</v>
+        <v>852</v>
       </c>
       <c r="C387" t="s">
-        <v>844</v>
-      </c>
-      <c r="D387" s="151" t="s">
-        <v>135</v>
+        <v>853</v>
+      </c>
+      <c r="D387" s="127" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C388" t="s">
-        <v>845</v>
-      </c>
-      <c r="D388" s="14" t="s">
-        <v>146</v>
+        <v>855</v>
+      </c>
+      <c r="D388" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>875</v>
+        <v>637</v>
       </c>
       <c r="C389" t="s">
-        <v>874</v>
-      </c>
-      <c r="D389" s="106" t="s">
-        <v>286</v>
+        <v>844</v>
+      </c>
+      <c r="D389" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="D390" s="140" t="s">
-        <v>859</v>
+        <v>856</v>
+      </c>
+      <c r="C390" t="s">
+        <v>845</v>
+      </c>
+      <c r="D390" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
+        <v>858</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C391" t="s">
+        <v>874</v>
+      </c>
+      <c r="D391" s="106" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>862</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D392" s="140" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>885</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B393" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="C393" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D391" s="127" t="s">
+      <c r="D393" s="127" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="C394" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="D392" s="110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="152" t="s">
-        <v>898</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="C393" s="152" t="s">
-        <v>898</v>
-      </c>
-      <c r="D393" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="152" t="s">
-        <v>899</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C394" s="152" t="s">
-        <v>899</v>
       </c>
       <c r="D394" s="110" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A395" s="1" t="s">
-        <v>900</v>
+      <c r="A395" s="152" t="s">
+        <v>898</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D395" s="80" t="s">
-        <v>45</v>
+        <v>902</v>
+      </c>
+      <c r="C395" s="152" t="s">
+        <v>898</v>
+      </c>
+      <c r="D395" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A396" s="1" t="s">
-        <v>901</v>
+      <c r="A396" s="152" t="s">
+        <v>899</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="D396" s="82" t="s">
-        <v>49</v>
+        <v>903</v>
+      </c>
+      <c r="C396" s="152" t="s">
+        <v>899</v>
+      </c>
+      <c r="D396" s="110" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D397" s="49" t="s">
-        <v>474</v>
+        <v>900</v>
+      </c>
+      <c r="D397" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="D398" s="142" t="s">
-        <v>632</v>
+        <v>901</v>
+      </c>
+      <c r="D398" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D399" s="80" t="s">
-        <v>45</v>
+        <v>906</v>
+      </c>
+      <c r="D399" s="49" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>922</v>
+        <v>907</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D400" s="89" t="s">
-        <v>139</v>
+        <v>907</v>
+      </c>
+      <c r="D400" s="142" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>923</v>
+        <v>908</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D401" s="45" t="s">
-        <v>462</v>
+        <v>908</v>
+      </c>
+      <c r="D401" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D402" s="77" t="s">
-        <v>38</v>
+        <v>909</v>
+      </c>
+      <c r="D402" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D403" s="151" t="s">
-        <v>135</v>
+        <v>910</v>
+      </c>
+      <c r="D403" s="45" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D404" s="75" t="s">
-        <v>29</v>
+        <v>911</v>
+      </c>
+      <c r="D404" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D405" s="80" t="s">
-        <v>45</v>
+        <v>912</v>
+      </c>
+      <c r="D405" s="151" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D406" s="83" t="s">
-        <v>56</v>
+        <v>913</v>
+      </c>
+      <c r="D406" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="D407" s="82" t="s">
-        <v>49</v>
+        <v>914</v>
+      </c>
+      <c r="D407" s="80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D408" s="24" t="s">
-        <v>305</v>
+        <v>915</v>
+      </c>
+      <c r="D408" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D409" s="92" t="s">
-        <v>185</v>
+        <v>916</v>
+      </c>
+      <c r="D409" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D410" s="77" t="s">
-        <v>38</v>
+        <v>917</v>
+      </c>
+      <c r="D410" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D411" s="82" t="s">
-        <v>49</v>
+        <v>918</v>
+      </c>
+      <c r="D411" s="92" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D412" s="75" t="s">
-        <v>29</v>
+        <v>924</v>
+      </c>
+      <c r="D412" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="D413" s="83" t="s">
-        <v>56</v>
+        <v>925</v>
+      </c>
+      <c r="D413" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="D414" s="24" t="s">
-        <v>305</v>
+        <v>926</v>
+      </c>
+      <c r="D414" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D415" s="77" t="s">
-        <v>38</v>
+        <v>927</v>
+      </c>
+      <c r="D415" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D416" s="82" t="s">
-        <v>49</v>
+        <v>928</v>
+      </c>
+      <c r="D416" s="24" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="D417" s="75" t="s">
-        <v>29</v>
+        <v>929</v>
+      </c>
+      <c r="D417" s="77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D418" s="83" t="s">
-        <v>56</v>
+        <v>930</v>
+      </c>
+      <c r="D418" s="82" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="D419" s="24" t="s">
-        <v>305</v>
+        <v>931</v>
+      </c>
+      <c r="D419" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="D420" s="82" t="s">
-        <v>49</v>
+        <v>932</v>
+      </c>
+      <c r="D420" s="83" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D421" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B421" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="D421" s="80" t="s">
+      <c r="D422" s="82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D423" s="80" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D305" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D301">
-      <sortCondition ref="A1:A300"/>
+  <autoFilter ref="A1:D307" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D303">
+      <sortCondition ref="A1:A302"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:A191">
-    <sortCondition ref="A127:A191"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A129:A193">
+    <sortCondition ref="A129:A193"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Projet avec NZA/Report/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034238F6-16BC-1D46-B6C6-05F00C9B7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C372B-A354-914C-BFBC-3B1E1E334278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="948">
   <si>
     <t>variable</t>
   </si>
@@ -2757,45 +2757,6 @@
     <t>23 juin, total</t>
   </si>
   <si>
-    <t>Wood Heat; Existing</t>
-  </si>
-  <si>
-    <t>Wood and Electric Dual System; Existing</t>
-  </si>
-  <si>
-    <t>Wood and Oil Dual System; Existing</t>
-  </si>
-  <si>
-    <t>Furnace; Heating Oil; Existing</t>
-  </si>
-  <si>
-    <t>Oil Furnace</t>
-  </si>
-  <si>
-    <t>Furnace; Natural Gas; Existing</t>
-  </si>
-  <si>
-    <t>Natural Gas Furnace</t>
-  </si>
-  <si>
-    <t>Electric Baseboard; Existing</t>
-  </si>
-  <si>
-    <t>Ductless Air Source Heat Pump; Existing</t>
-  </si>
-  <si>
-    <t>Heat Pump (Ductless) with EBB backup</t>
-  </si>
-  <si>
-    <t>Heat Pump (Ductless) with oil backup</t>
-  </si>
-  <si>
-    <t>Heat Pump (Ductless) with wood backup</t>
-  </si>
-  <si>
-    <t>Heat Pump (Ductless) with NG backup</t>
-  </si>
-  <si>
     <t>Bi-énergie bois et électrique; Existant</t>
   </si>
   <si>
@@ -2805,12 +2766,6 @@
     <t>Bi-énergie bois et mazout; Existant</t>
   </si>
   <si>
-    <t>Heating oil furnace; Existing</t>
-  </si>
-  <si>
-    <t>Heating oil furnace</t>
-  </si>
-  <si>
     <t>LE-LP</t>
   </si>
   <si>
@@ -2887,6 +2842,45 @@
   </si>
   <si>
     <t>Éolien (en mer)</t>
+  </si>
+  <si>
+    <t>Wood (existing)</t>
+  </si>
+  <si>
+    <t>Wood-electric dual system (existing)</t>
+  </si>
+  <si>
+    <t>Wood-oil dual system (existing)</t>
+  </si>
+  <si>
+    <t>Heating oil furnace (new)</t>
+  </si>
+  <si>
+    <t>Natural gas furnace (existing)</t>
+  </si>
+  <si>
+    <t>Electric baseboard (existing)</t>
+  </si>
+  <si>
+    <t>Heating oil furnace (existing)</t>
+  </si>
+  <si>
+    <t>Natural gas furnace (new)</t>
+  </si>
+  <si>
+    <t>Ductless air source heat pump (existing)</t>
+  </si>
+  <si>
+    <t>Ductless HP with EBB backup</t>
+  </si>
+  <si>
+    <t>Ductless HP with oil backup</t>
+  </si>
+  <si>
+    <t>Ductless HP with wood backup</t>
+  </si>
+  <si>
+    <t>Ductless HP with natural gas backup</t>
   </si>
 </sst>
 </file>
@@ -4504,8 +4498,8 @@
   <dimension ref="A1:D423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5789,13 +5783,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>223</v>
@@ -5803,13 +5797,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="D93" s="138" t="s">
         <v>603</v>
@@ -5957,13 +5951,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>240</v>
@@ -5971,13 +5965,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="D105" s="49" t="s">
         <v>474</v>
@@ -10085,13 +10079,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="D399" s="49" t="s">
         <v>474</v>
@@ -10099,13 +10093,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
       <c r="D400" s="142" t="s">
         <v>632</v>
@@ -10113,13 +10107,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="C401" s="1" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
       <c r="D401" s="80" t="s">
         <v>45</v>
@@ -10127,10 +10121,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>909</v>
+        <v>941</v>
       </c>
       <c r="D402" s="89" t="s">
         <v>139</v>
@@ -10138,10 +10132,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="D403" s="45" t="s">
         <v>462</v>
@@ -10149,10 +10143,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
       <c r="D404" s="77" t="s">
         <v>38</v>
@@ -10160,10 +10154,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>912</v>
+        <v>942</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>912</v>
+        <v>942</v>
       </c>
       <c r="D405" s="151" t="s">
         <v>135</v>
@@ -10171,10 +10165,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="D406" s="75" t="s">
         <v>29</v>
@@ -10182,10 +10176,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
       <c r="D407" s="80" t="s">
         <v>45</v>
@@ -10193,10 +10187,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="D408" s="83" t="s">
         <v>56</v>
@@ -10204,10 +10198,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="D409" s="82" t="s">
         <v>49</v>
@@ -10215,10 +10209,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="D410" s="24" t="s">
         <v>305</v>
@@ -10226,10 +10220,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="D411" s="92" t="s">
         <v>185</v>
@@ -10237,13 +10231,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="D412" s="77" t="s">
         <v>38</v>
@@ -10251,13 +10245,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="D413" s="82" t="s">
         <v>49</v>
@@ -10265,13 +10259,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="D414" s="75" t="s">
         <v>29</v>
@@ -10279,13 +10273,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="D415" s="83" t="s">
         <v>56</v>
@@ -10293,13 +10287,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="D416" s="24" t="s">
         <v>305</v>
@@ -10307,13 +10301,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="D417" s="77" t="s">
         <v>38</v>
@@ -10321,13 +10315,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="D418" s="82" t="s">
         <v>49</v>
@@ -10335,13 +10329,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="D419" s="75" t="s">
         <v>29</v>
@@ -10349,13 +10343,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="D420" s="83" t="s">
         <v>56</v>
@@ -10363,13 +10357,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="D421" s="24" t="s">
         <v>305</v>
@@ -10377,13 +10371,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="D422" s="82" t="s">
         <v>49</v>
@@ -10391,13 +10385,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="D423" s="80" t="s">
         <v>45</v>

--- a/assets/colors.xlsx
+++ b/assets/colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonlanglois/IET Dropbox/Projets en cours/Projet avec NZA/Report/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C372B-A354-914C-BFBC-3B1E1E334278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10F4801-85D9-754F-AF0A-A847182F5870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29560" yWindow="660" windowWidth="38240" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste référence" sheetId="1" r:id="rId1"/>
@@ -2868,19 +2868,19 @@
     <t>Natural gas furnace (new)</t>
   </si>
   <si>
-    <t>Ductless air source heat pump (existing)</t>
-  </si>
-  <si>
-    <t>Ductless HP with EBB backup</t>
-  </si>
-  <si>
-    <t>Ductless HP with oil backup</t>
-  </si>
-  <si>
-    <t>Ductless HP with wood backup</t>
-  </si>
-  <si>
-    <t>Ductless HP with natural gas backup</t>
+    <t>Air source heat pump (existing)</t>
+  </si>
+  <si>
+    <t>HP with EBB backup</t>
+  </si>
+  <si>
+    <t>HP with oil backup</t>
+  </si>
+  <si>
+    <t>HP with wood backup</t>
+  </si>
+  <si>
+    <t>HP with natural gas backup</t>
   </si>
 </sst>
 </file>
@@ -4499,7 +4499,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A400" sqref="A400"/>
+      <selection pane="bottomLeft" activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
